--- a/3-course-6-semester/econometrics/task-8/task-8.xlsx
+++ b/3-course-6-semester/econometrics/task-8/task-8.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mag\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bronn\Documents\github\university\3-course-6-semester\econometrics\task-8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A772799-CA6D-40FE-8ADC-4346A03E6422}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6FF5DD-B3D3-4C11-BFA9-C1AE0531CA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19605" windowHeight="11145" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ДЗ" sheetId="1" r:id="rId1"/>
+    <sheet name="ДЗ" sheetId="10" r:id="rId1"/>
     <sheet name="Лист1" sheetId="2" r:id="rId2"/>
     <sheet name="Лист2" sheetId="3" r:id="rId3"/>
     <sheet name="Лист3" sheetId="4" r:id="rId4"/>
@@ -31,17 +31,27 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="82">
   <si>
     <t>Задача 26</t>
   </si>
@@ -347,18 +357,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -369,12 +373,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,15 +904,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -923,16 +921,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -953,16 +948,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -974,45 +969,24 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1054,13 +1028,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1076,10 +1050,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1097,20 +1080,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1139,14 +1132,14 @@
       <xdr:rowOff>138110</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2876550" cy="1081090"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4">
+            <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F76DA02-61B7-4011-97B4-4556C822C414}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFC63CF-1ABA-4AA0-8130-94D7A9B039C6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1920,13 +1913,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4">
+            <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F76DA02-61B7-4011-97B4-4556C822C414}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFC63CF-1ABA-4AA0-8130-94D7A9B039C6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2013,143 +2006,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑌_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=𝑎_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+𝑏_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>21</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 𝑌_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑐_21 𝑋_1+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑒_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2</a:t>
+                <a:t>𝑌_2=𝑎_2+𝑏_21 𝑌_1+𝑐_21 𝑋_1+𝑒_2</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400">
                 <a:effectLst/>
@@ -2179,47 +2040,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑌_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>3</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑌_2+𝑋_2</a:t>
+                <a:t>𝑌_3=𝑌_2+𝑋_2</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400" b="0"/>
             </a:p>
@@ -2237,14 +2062,14 @@
       <xdr:rowOff>185735</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2705100" cy="1109665"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5">
+            <xdr:cNvPr id="3" name="TextBox 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C31C64-1D22-4D6F-BE85-782B3D60224A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8386D3BD-8A2A-44E6-92FF-5407F5AC59DD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2889,13 +2714,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5">
+            <xdr:cNvPr id="3" name="TextBox 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C31C64-1D22-4D6F-BE85-782B3D60224A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8386D3BD-8A2A-44E6-92FF-5407F5AC59DD}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2974,47 +2799,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑌_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2−4𝑋_1+10𝑋_2+𝑣_2</a:t>
+                <a:t>𝑌_2=2−4𝑋_1+10𝑋_2+𝑣_2</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400" b="0" i="1">
                 <a:solidFill>
@@ -3034,47 +2823,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑌_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>3</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−30+12𝑋_1+8𝑋_2+𝑣_3</a:t>
+                <a:t>𝑌_3=−30+12𝑋_1+8𝑋_2+𝑣_3</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400" b="0"/>
             </a:p>
@@ -3099,10 +2852,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6">
+        <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210E4CA5-0B81-41F4-8300-6F532A74684C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F50F450-59C0-44D9-AC8E-05BEB2190F9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,8 +2863,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6343651" y="2124076"/>
-          <a:ext cx="5429250" cy="533400"/>
+          <a:off x="6105526" y="2085976"/>
+          <a:ext cx="4286250" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3186,10 +2939,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7">
+        <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B65140-0555-48A2-B0BF-E170FEC405B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FBA921-EA9A-4FCF-9450-FA7CF0927D9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3197,8 +2950,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1257300" y="3962400"/>
-          <a:ext cx="4057650" cy="1447799"/>
+          <a:off x="1257300" y="3886200"/>
+          <a:ext cx="3933825" cy="1447799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3311,10 +3064,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8">
+        <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B57A0FC-69CB-4373-9603-8E3E10439E00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6001935-4FDB-43C8-A3CF-BDD2667BB4E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,8 +3075,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1209675" y="6610350"/>
-          <a:ext cx="4343400" cy="485775"/>
+          <a:off x="1209675" y="6505575"/>
+          <a:ext cx="4219575" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3398,10 +3151,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9">
+        <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308865D9-8F85-4C9A-8409-49448C17E733}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6615469-0B97-4D81-B76C-41871BD0A1DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3409,8 +3162,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1323975" y="7248525"/>
-          <a:ext cx="2466975" cy="504825"/>
+          <a:off x="1323975" y="7143750"/>
+          <a:ext cx="2343150" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3476,14 +3229,14 @@
       <xdr:rowOff>11035</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5254043" cy="749821"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="TextBox 10">
+            <xdr:cNvPr id="8" name="TextBox 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEBF2D2B-85CB-481D-BFCB-2F6C3CA67376}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B58B98-8DC7-4224-A511-7034881F1923}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3491,7 +3244,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="10800000" flipH="1" flipV="1">
-              <a:off x="8681031" y="11812510"/>
+              <a:off x="8557206" y="11631535"/>
               <a:ext cx="5254043" cy="749821"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3640,13 +3393,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="TextBox 10">
+            <xdr:cNvPr id="8" name="TextBox 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEBF2D2B-85CB-481D-BFCB-2F6C3CA67376}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B58B98-8DC7-4224-A511-7034881F1923}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3654,7 +3407,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="10800000" flipH="1" flipV="1">
-              <a:off x="8681031" y="11812510"/>
+              <a:off x="8557206" y="11631535"/>
               <a:ext cx="5254043" cy="749821"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3701,6 +3454,7 @@
               <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -3730,10 +3484,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11">
+        <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5084B249-B5EF-4DE6-95F3-1967DA2496C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93701074-BDC8-4003-BC1E-868AC28E0569}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3741,8 +3495,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200150" y="13373100"/>
-          <a:ext cx="4057650" cy="1447799"/>
+          <a:off x="1200150" y="13173075"/>
+          <a:ext cx="3933825" cy="1447799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3863,10 +3617,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="TextBox 12">
+        <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0163314-2A90-4FE1-8398-92D628C3AC45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A209999-3C5B-4FA0-88E5-087B9E1A66D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3874,8 +3628,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1143000" y="16240125"/>
-          <a:ext cx="4343400" cy="485775"/>
+          <a:off x="1143000" y="16011525"/>
+          <a:ext cx="4219575" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3957,10 +3711,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13">
+        <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD75D18C-B8DF-4287-ABDC-07699D56418F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A7755E-95E3-4CB4-90EE-5791E6D379E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3968,8 +3722,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1209675" y="17030700"/>
-          <a:ext cx="2466975" cy="504825"/>
+          <a:off x="1209675" y="16802100"/>
+          <a:ext cx="2343150" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4040,14 +3794,14 @@
       <xdr:row>109</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="TextBox 14">
+            <xdr:cNvPr id="12" name="TextBox 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB65BE77-F53B-4097-B3BF-19B9BDA3B4D0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71F4DF5-E63E-4A64-84CD-3854CB5E7B44}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4055,8 +3809,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1190625" y="17697449"/>
-              <a:ext cx="4743450" cy="3343276"/>
+              <a:off x="1190625" y="17468849"/>
+              <a:ext cx="4619625" cy="3343276"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6250,13 +6004,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="15" name="TextBox 14">
+            <xdr:cNvPr id="12" name="TextBox 11">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB65BE77-F53B-4097-B3BF-19B9BDA3B4D0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A71F4DF5-E63E-4A64-84CD-3854CB5E7B44}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6264,8 +6018,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1190625" y="17697449"/>
-              <a:ext cx="4743450" cy="3343276"/>
+              <a:off x="1190625" y="17468849"/>
+              <a:ext cx="4619625" cy="3343276"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6386,7 +6140,7 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -6483,7 +6237,7 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -6565,7 +6319,7 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -6574,7 +6328,6 @@
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
             <a:p>
@@ -6605,127 +6358,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑋_2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1.25−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑋〗_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+𝑌_1−𝑣_1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)/0.67</a:t>
+                <a:t>𝑋_2=(1.25−2〖2𝑋〗_1+𝑌_1−𝑣_1)/0.67</a:t>
               </a:r>
               <a:endParaRPr lang="en-US">
                 <a:effectLst/>
@@ -6761,83 +6394,11 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑌_2=2−4𝑋_1+10</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>∗(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(1.25−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>22𝑋_1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+𝑌_1−𝑣_1)/0.67</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+𝑣_2</a:t>
+                <a:t>𝑌_2=2−4𝑋_1+10∗((1.25−22𝑋_1+𝑌_1−𝑣_1)/0.67)+𝑣_2</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100" b="0">
                 <a:solidFill>
@@ -6883,23 +6444,11 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑌_2=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>20.6567−332.358〖 𝑋〗_1+14.9254 𝑌_1−14.9254 𝑣_1+𝑣_2</a:t>
+                <a:t>𝑌_2=20.6567−332.358〖 𝑋〗_1+14.9254 𝑌_1−14.9254 𝑣_1+𝑣_2</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100" b="0">
                 <a:solidFill>
@@ -6950,7 +6499,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
@@ -6967,14 +6515,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5254043" cy="749821"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="TextBox 15">
+            <xdr:cNvPr id="13" name="TextBox 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B686F98-B8A1-4A6A-BF24-27011B90F4E8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC0ECD6-8855-483A-849A-4DFE37390F6D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6982,7 +6530,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="10800000" flipH="1" flipV="1">
-              <a:off x="1247775" y="21183600"/>
+              <a:off x="1247775" y="20955000"/>
               <a:ext cx="5254043" cy="749821"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7321,13 +6869,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="16" name="TextBox 15">
+            <xdr:cNvPr id="13" name="TextBox 12">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B686F98-B8A1-4A6A-BF24-27011B90F4E8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC0ECD6-8855-483A-849A-4DFE37390F6D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7335,7 +6883,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="10800000" flipH="1" flipV="1">
-              <a:off x="1247775" y="21183600"/>
+              <a:off x="1247775" y="20955000"/>
               <a:ext cx="5254043" cy="749821"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7389,7 +6937,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7413,14 +6961,14 @@
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2876550" cy="1081090"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="TextBox 16">
+            <xdr:cNvPr id="14" name="TextBox 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74ACC296-060F-4983-AD17-1FCEEBF813DA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E05447-FE8B-4722-8604-14176A6B98A1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7428,7 +6976,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4419600" y="23793450"/>
+              <a:off x="4295775" y="23564850"/>
               <a:ext cx="2876550" cy="1081090"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8612,13 +8160,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="TextBox 16">
+            <xdr:cNvPr id="14" name="TextBox 13">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74ACC296-060F-4983-AD17-1FCEEBF813DA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E05447-FE8B-4722-8604-14176A6B98A1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8626,7 +8174,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4419600" y="23793450"/>
+              <a:off x="4295775" y="23564850"/>
               <a:ext cx="2876550" cy="1081090"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -8705,71 +8253,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑌_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=𝑎_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+𝑏_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2</a:t>
+                <a:t>𝑌_2=𝑎_2+𝑏_2</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ru-RU" sz="1400" b="0" i="0">
@@ -8793,55 +8281,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> 𝑋_2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑏_23 𝑋_3+𝑐_21 𝑌_1+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑒_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2</a:t>
+                <a:t> 𝑋_2+𝑏_23 𝑋_3+𝑐_21 𝑌_1+𝑒_2</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400">
                 <a:effectLst/>
@@ -8893,14 +8333,14 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2876550" cy="1081090"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="TextBox 17">
+            <xdr:cNvPr id="15" name="TextBox 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4C6A73-8C0A-467D-BDDD-5F4E3E635C57}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7445B7-C2C7-488E-BC55-6973F67CAE1F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8908,7 +8348,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8315325" y="23755350"/>
+              <a:off x="8191500" y="23526750"/>
               <a:ext cx="2876550" cy="1081090"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9764,13 +9204,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="TextBox 17">
+            <xdr:cNvPr id="15" name="TextBox 14">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4C6A73-8C0A-467D-BDDD-5F4E3E635C57}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7445B7-C2C7-488E-BC55-6973F67CAE1F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9778,7 +9218,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8315325" y="23755350"/>
+              <a:off x="8191500" y="23526750"/>
               <a:ext cx="2876550" cy="1081090"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9863,71 +9303,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑌_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>16−12〖 𝑋〗_1−70〖 𝑋〗_2+8 𝑋_3+𝑣</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2</a:t>
+                <a:t>𝑌_2=16−12〖 𝑋〗_1−70〖 𝑋〗_2+8 𝑋_3+𝑣_2</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1400">
                 <a:effectLst/>
@@ -9986,10 +9366,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18">
+        <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE32841-580D-4F1F-817D-30E33D49832C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC12692E-1830-4238-A391-4B345B2CB279}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9997,8 +9377,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1190625" y="25965150"/>
-          <a:ext cx="5410200" cy="1704975"/>
+          <a:off x="1190625" y="25698450"/>
+          <a:ext cx="5172075" cy="1704975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10132,10 +9512,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19">
+        <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB3209A-693E-42F2-8EB8-109ED84ADE2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04872DD7-8BB0-4A5A-8F8A-14B399885BAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10143,8 +9523,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1247775" y="28898850"/>
-          <a:ext cx="4457700" cy="485775"/>
+          <a:off x="1247775" y="28603575"/>
+          <a:ext cx="4219575" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10261,10 +9641,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 20">
+        <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E245CF9-844E-49A4-98F6-9D8DCFC63F47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2E7183-37EB-4B3F-963C-B8CA31C01F7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10272,8 +9652,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8801100" y="25984200"/>
-          <a:ext cx="2581275" cy="504825"/>
+          <a:off x="8562975" y="25717500"/>
+          <a:ext cx="1438275" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10344,14 +9724,14 @@
       <xdr:row>156</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="TextBox 21">
+            <xdr:cNvPr id="19" name="TextBox 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5215B927-4D9E-4E4D-9BF5-E258CE399E86}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C91D369-98E2-4E5E-B64A-451B7031A45A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10359,8 +9739,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8772524" y="26793824"/>
-              <a:ext cx="5334001" cy="3343276"/>
+              <a:off x="8534399" y="26508074"/>
+              <a:ext cx="4191001" cy="3314701"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13035,13 +12415,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="22" name="TextBox 21">
+            <xdr:cNvPr id="19" name="TextBox 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5215B927-4D9E-4E4D-9BF5-E258CE399E86}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C91D369-98E2-4E5E-B64A-451B7031A45A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13049,8 +12429,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8772524" y="26793824"/>
-              <a:ext cx="5334001" cy="3343276"/>
+              <a:off x="8534399" y="26508074"/>
+              <a:ext cx="4191001" cy="3314701"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13520,14 +12900,14 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5254043" cy="749821"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="23" name="TextBox 22">
+            <xdr:cNvPr id="20" name="TextBox 19">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8C30E8-632C-46C3-B76C-F2232EA0BC01}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285F49E9-B624-4ABD-99A2-C03501BDDB11}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13535,7 +12915,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="10800000" flipH="1" flipV="1">
-              <a:off x="1533525" y="30213300"/>
+              <a:off x="1533525" y="29918025"/>
               <a:ext cx="5254043" cy="749821"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -13929,13 +13309,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="23" name="TextBox 22">
+            <xdr:cNvPr id="20" name="TextBox 19">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8C30E8-632C-46C3-B76C-F2232EA0BC01}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285F49E9-B624-4ABD-99A2-C03501BDDB11}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -13943,7 +13323,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="10800000" flipH="1" flipV="1">
-              <a:off x="1533525" y="30213300"/>
+              <a:off x="1533525" y="29918025"/>
               <a:ext cx="5254043" cy="749821"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -13997,7 +13377,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -14028,10 +13408,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="TextBox 23">
+        <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FA3DCFB-D1E6-45F3-8A9B-FAA09C4A314E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F623452-12C7-41E7-8E93-F71EB893E53C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14039,8 +13419,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1238250" y="32194500"/>
-          <a:ext cx="5410200" cy="1704975"/>
+          <a:off x="1238250" y="31880175"/>
+          <a:ext cx="5172075" cy="1704975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14182,10 +13562,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="TextBox 24">
+        <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99796426-532E-4A86-AD8A-8FFDF3548D0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBAA4A3-EB0B-459B-A21B-BA99FFB2BB9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14193,8 +13573,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1247775" y="35042475"/>
-          <a:ext cx="4457700" cy="485775"/>
+          <a:off x="1247775" y="34699575"/>
+          <a:ext cx="4219575" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14311,10 +13691,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="TextBox 25">
+        <xdr:cNvPr id="23" name="TextBox 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91076B2-435F-431E-A135-AE744DFC8EAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3904DB-0D84-40AD-B201-2B2F91A1CA25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14322,8 +13702,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8801100" y="32156400"/>
-          <a:ext cx="2581275" cy="504825"/>
+          <a:off x="8562975" y="31842075"/>
+          <a:ext cx="1438275" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14394,14 +13774,14 @@
       <xdr:row>189</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="27" name="TextBox 26">
+            <xdr:cNvPr id="24" name="TextBox 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FCD0136-36F8-46A6-8018-C9ED17F8DD28}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1379E59F-20A9-44ED-B656-1518B9117493}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -14409,8 +13789,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8791575" y="33108900"/>
-              <a:ext cx="5334001" cy="3343276"/>
+              <a:off x="8553450" y="32794575"/>
+              <a:ext cx="4191001" cy="3314701"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17040,13 +16420,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="27" name="TextBox 26">
+            <xdr:cNvPr id="24" name="TextBox 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FCD0136-36F8-46A6-8018-C9ED17F8DD28}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1379E59F-20A9-44ED-B656-1518B9117493}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17054,8 +16434,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8791575" y="33108900"/>
-              <a:ext cx="5334001" cy="3343276"/>
+              <a:off x="8553450" y="32794575"/>
+              <a:ext cx="4191001" cy="3314701"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -17160,7 +16540,7 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -17172,7 +16552,7 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -17184,7 +16564,7 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -17260,7 +16640,7 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -17271,7 +16651,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
             <a:p>
@@ -17343,7 +16722,7 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -17354,7 +16733,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
             <a:p>
@@ -17385,79 +16763,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑋_1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(−6−10 𝑋_2−4 𝑋_3</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+𝑌_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−𝑣_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1)/8</a:t>
+                <a:t>𝑋_1=(−6−10 𝑋_2−4 𝑋_3+𝑌_1−𝑣_1)/8</a:t>
               </a:r>
               <a:endParaRPr lang="en-US">
                 <a:effectLst/>
@@ -17509,59 +16815,11 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑌_2=16−12</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>∗(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(−6−10 𝑋_2−4 𝑋_3+𝑌_1−𝑣_1)/8</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−70〖 𝑋〗_2+8 𝑋_3+𝑣_2</a:t>
+                <a:t>𝑌_2=16−12∗((−6−10 𝑋_2−4 𝑋_3+𝑌_1−𝑣_1)/8)−70〖 𝑋〗_2+8 𝑋_3+𝑣_2</a:t>
               </a:r>
               <a:endParaRPr lang="en-US">
                 <a:effectLst/>
@@ -17602,47 +16860,11 @@
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑌_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>25−55𝑋_2+14𝑋_3−1.5𝑌_1+𝑣_2+1.5𝑣_1</a:t>
+                <a:t>𝑌_2=25−55𝑋_2+14𝑋_3−1.5𝑌_1+𝑣_2+1.5𝑣_1</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100" b="0">
                 <a:solidFill>
@@ -17682,7 +16904,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
@@ -17699,14 +16920,14 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5254043" cy="749821"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="TextBox 27">
+            <xdr:cNvPr id="25" name="TextBox 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6105D532-44C4-47EF-9D6B-12FA23C0B607}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1847CE99-646D-47CE-96DF-1CD58E50CD3D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -17714,7 +16935,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="10800000" flipH="1" flipV="1">
-              <a:off x="1219200" y="36147375"/>
+              <a:off x="1219200" y="35804475"/>
               <a:ext cx="5254043" cy="749821"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -18096,13 +17317,13 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="28" name="TextBox 27">
+            <xdr:cNvPr id="25" name="TextBox 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6105D532-44C4-47EF-9D6B-12FA23C0B607}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1847CE99-646D-47CE-96DF-1CD58E50CD3D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -18110,7 +17331,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm rot="10800000" flipH="1" flipV="1">
-              <a:off x="1219200" y="36147375"/>
+              <a:off x="1219200" y="35804475"/>
               <a:ext cx="5254043" cy="749821"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -18164,7 +17385,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -18195,10 +17416,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="TextBox 28">
+        <xdr:cNvPr id="26" name="TextBox 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{412D9EE2-3C86-4FCF-8ED5-81574E783451}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D30B3B-385A-40E1-ADB6-D33139AE01AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18206,8 +17427,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1219200" y="38080950"/>
-          <a:ext cx="5410200" cy="1571625"/>
+          <a:off x="1219200" y="37719000"/>
+          <a:ext cx="5172075" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18333,10 +17554,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="TextBox 29">
+        <xdr:cNvPr id="27" name="TextBox 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE47DC0-4CFB-40A5-87A2-C62AF3273CB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E38A2724-2B22-42D0-80E0-13ADB9BF2AE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18344,8 +17565,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1190625" y="41338500"/>
-          <a:ext cx="4457700" cy="485775"/>
+          <a:off x="1190625" y="40947975"/>
+          <a:ext cx="4219575" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18462,10 +17683,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="TextBox 30">
+        <xdr:cNvPr id="28" name="TextBox 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0C0672D-73CE-437B-A375-01A54E9DD04E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130847F1-5529-42DE-8F93-C6674B044342}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18473,8 +17694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8772525" y="38042851"/>
-          <a:ext cx="3343275" cy="647700"/>
+          <a:off x="8534400" y="37680901"/>
+          <a:ext cx="2200275" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20703,11 +19924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC4C0AB-3C82-4AFF-9548-73E1348CCA24}">
   <dimension ref="B5:W213"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="O160" sqref="O160"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20721,8 +19942,8 @@
       <c r="C6" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="72"/>
     </row>
     <row r="8" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20738,22 +19959,22 @@
       <c r="C13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="61">
         <v>1</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="62">
         <v>2</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="62">
         <v>3</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="62">
         <v>4</v>
       </c>
-      <c r="H13" s="42">
+      <c r="H13" s="62">
         <v>5</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="63">
         <v>6</v>
       </c>
     </row>
@@ -20761,22 +19982,22 @@
       <c r="C14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="53">
         <v>3</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="36">
         <v>2</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="36">
         <v>4</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="36">
         <v>1</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="36">
         <v>5</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="38">
         <v>3</v>
       </c>
     </row>
@@ -20784,22 +20005,22 @@
       <c r="C15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="53">
         <v>2</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="36">
         <v>3</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="36">
         <v>5</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="36">
         <v>6</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="36">
         <v>10</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="38">
         <v>8</v>
       </c>
     </row>
@@ -20807,108 +20028,108 @@
       <c r="C16" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>4</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>7</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>3</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>6</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>5</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="71" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="73"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="68"/>
     </row>
     <row r="31" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="70"/>
-      <c r="D31" s="16" t="s">
+      <c r="C31" s="65"/>
+      <c r="D31" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <v>2</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="16">
         <v>0</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="19">
+      <c r="C33" s="18">
         <v>3</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="15">
         <v>-1</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="21">
         <v>0</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="O41" s="28" t="s">
+      <c r="O41" s="27" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="42" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="57" t="s">
+      <c r="C43" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="D43" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="58" t="s">
+      <c r="E43" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="58" t="s">
+      <c r="F43" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="58" t="s">
+      <c r="G43" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="58" t="s">
+      <c r="H43" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="59" t="s">
+      <c r="I43" s="51" t="s">
         <v>13</v>
       </c>
       <c r="O43" t="s">
@@ -20916,240 +20137,240 @@
       </c>
     </row>
     <row r="44" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="47">
+      <c r="C44" s="39">
         <v>2</v>
       </c>
-      <c r="D44" s="48">
+      <c r="D44" s="40">
         <v>4</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="40">
         <f>2-4*C44+10*D44</f>
         <v>34</v>
       </c>
-      <c r="F44" s="48">
+      <c r="F44" s="40">
         <f>E44</f>
         <v>34</v>
       </c>
-      <c r="G44" s="48">
+      <c r="G44" s="40">
         <v>3</v>
       </c>
-      <c r="H44" s="48">
+      <c r="H44" s="40">
         <f>G44*F44</f>
         <v>102</v>
       </c>
-      <c r="I44" s="49">
+      <c r="I44" s="41">
         <f>F44^2</f>
         <v>1156</v>
       </c>
-      <c r="U44" s="29" t="s">
+      <c r="U44" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="V44" s="30">
+      <c r="V44" s="29">
         <f>P59</f>
         <v>4.7001545595054095</v>
       </c>
     </row>
     <row r="45" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="45">
+      <c r="C45" s="37">
         <v>3</v>
       </c>
-      <c r="D45" s="44">
+      <c r="D45" s="36">
         <v>7</v>
       </c>
-      <c r="E45" s="44">
-        <f t="shared" ref="E45:E49" si="0">2-4*C45+10*D45</f>
+      <c r="E45" s="36">
+        <f>2-4*C45+10*D45</f>
         <v>60</v>
       </c>
-      <c r="F45" s="44">
-        <f t="shared" ref="F45:F49" si="1">E45</f>
+      <c r="F45" s="36">
+        <f>E45</f>
         <v>60</v>
       </c>
-      <c r="G45" s="44">
+      <c r="G45" s="36">
         <v>2</v>
       </c>
-      <c r="H45" s="44">
-        <f t="shared" ref="H45:H49" si="2">G45*F45</f>
+      <c r="H45" s="36">
+        <f>G45*F45</f>
         <v>120</v>
       </c>
-      <c r="I45" s="46">
-        <f t="shared" ref="I45:I49" si="3">F45^2</f>
+      <c r="I45" s="38">
+        <f>F45^2</f>
         <v>3600</v>
       </c>
-      <c r="O45" s="27" t="s">
+      <c r="O45" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="P45" s="27"/>
-      <c r="U45" s="31" t="s">
+      <c r="P45" s="77"/>
+      <c r="U45" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="V45" s="32">
+      <c r="V45" s="31">
         <f>P60</f>
         <v>-5.7959814528593508E-2</v>
       </c>
     </row>
     <row r="46" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C46" s="45">
+      <c r="C46" s="37">
         <v>5</v>
       </c>
-      <c r="D46" s="44">
+      <c r="D46" s="36">
         <v>3</v>
       </c>
-      <c r="E46" s="44">
-        <f t="shared" si="0"/>
+      <c r="E46" s="36">
+        <f>2-4*C46+10*D46</f>
         <v>12</v>
       </c>
-      <c r="F46" s="44">
-        <f t="shared" si="1"/>
+      <c r="F46" s="36">
+        <f>E46</f>
         <v>12</v>
       </c>
-      <c r="G46" s="44">
+      <c r="G46" s="36">
         <v>4</v>
       </c>
-      <c r="H46" s="44">
-        <f t="shared" si="2"/>
+      <c r="H46" s="36">
+        <f>G46*F46</f>
         <v>48</v>
       </c>
-      <c r="I46" s="46">
-        <f t="shared" si="3"/>
+      <c r="I46" s="38">
+        <f>F46^2</f>
         <v>144</v>
       </c>
-      <c r="O46" s="24" t="s">
+      <c r="O46" t="s">
         <v>20</v>
       </c>
-      <c r="P46" s="24">
+      <c r="P46">
         <v>0.76131343432645082</v>
       </c>
     </row>
     <row r="47" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C47" s="45">
+      <c r="C47" s="37">
         <v>6</v>
       </c>
-      <c r="D47" s="44">
+      <c r="D47" s="36">
         <v>6</v>
       </c>
-      <c r="E47" s="44">
-        <f t="shared" si="0"/>
+      <c r="E47" s="36">
+        <f>2-4*C47+10*D47</f>
         <v>38</v>
       </c>
-      <c r="F47" s="44">
-        <f t="shared" si="1"/>
+      <c r="F47" s="36">
+        <f>E47</f>
         <v>38</v>
       </c>
-      <c r="G47" s="44">
+      <c r="G47" s="36">
         <v>1</v>
       </c>
-      <c r="H47" s="44">
-        <f t="shared" si="2"/>
+      <c r="H47" s="36">
+        <f>G47*F47</f>
         <v>38</v>
       </c>
-      <c r="I47" s="46">
-        <f t="shared" si="3"/>
+      <c r="I47" s="38">
+        <f>F47^2</f>
         <v>1444</v>
       </c>
-      <c r="O47" s="24" t="s">
+      <c r="O47" t="s">
         <v>21</v>
       </c>
-      <c r="P47" s="24">
+      <c r="P47">
         <v>0.57959814528593512</v>
       </c>
     </row>
     <row r="48" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="C48" s="45">
+      <c r="C48" s="37">
         <v>10</v>
       </c>
-      <c r="D48" s="44">
+      <c r="D48" s="36">
         <v>5</v>
       </c>
-      <c r="E48" s="44">
-        <f t="shared" si="0"/>
+      <c r="E48" s="36">
+        <f>2-4*C48+10*D48</f>
         <v>12</v>
       </c>
-      <c r="F48" s="44">
-        <f t="shared" si="1"/>
+      <c r="F48" s="36">
+        <f>E48</f>
         <v>12</v>
       </c>
-      <c r="G48" s="44">
+      <c r="G48" s="36">
         <v>5</v>
       </c>
-      <c r="H48" s="44">
-        <f t="shared" si="2"/>
+      <c r="H48" s="36">
+        <f>G48*F48</f>
         <v>60</v>
       </c>
-      <c r="I48" s="46">
-        <f t="shared" si="3"/>
+      <c r="I48" s="38">
+        <f>F48^2</f>
         <v>144</v>
       </c>
-      <c r="O48" s="24" t="s">
+      <c r="O48" t="s">
         <v>22</v>
       </c>
-      <c r="P48" s="24">
+      <c r="P48">
         <v>0.4744976816074189</v>
       </c>
     </row>
     <row r="49" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="52">
+      <c r="C49" s="44">
         <v>8</v>
       </c>
-      <c r="D49" s="53">
+      <c r="D49" s="45">
         <v>5</v>
       </c>
-      <c r="E49" s="53">
-        <f t="shared" si="0"/>
+      <c r="E49" s="45">
+        <f>2-4*C49+10*D49</f>
         <v>20</v>
       </c>
-      <c r="F49" s="53">
-        <f t="shared" si="1"/>
+      <c r="F49" s="45">
+        <f>E49</f>
         <v>20</v>
       </c>
-      <c r="G49" s="53">
+      <c r="G49" s="45">
         <v>3</v>
       </c>
-      <c r="H49" s="53">
-        <f t="shared" si="2"/>
+      <c r="H49" s="45">
+        <f>G49*F49</f>
         <v>60</v>
       </c>
-      <c r="I49" s="54">
-        <f t="shared" si="3"/>
+      <c r="I49" s="46">
+        <f>F49^2</f>
         <v>400</v>
       </c>
-      <c r="O49" s="24" t="s">
+      <c r="O49" t="s">
         <v>23</v>
       </c>
-      <c r="P49" s="24">
+      <c r="P49">
         <v>1.0251851719495177</v>
       </c>
     </row>
     <row r="50" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="56" t="s">
+      <c r="D50" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="56" t="s">
+      <c r="E50" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="56" t="s">
+      <c r="F50" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="56" t="s">
+      <c r="G50" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="50">
+      <c r="H50" s="42">
         <f>SUM(H44:H49)</f>
         <v>428</v>
       </c>
-      <c r="I50" s="51">
+      <c r="I50" s="43">
         <f>SUM(I44:I49)</f>
         <v>6888</v>
       </c>
-      <c r="O50" s="25" t="s">
+      <c r="O50" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="P50" s="25">
+      <c r="P50" s="75">
         <v>6</v>
       </c>
     </row>
@@ -21159,203 +20380,201 @@
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="O53" s="26"/>
-      <c r="P53" s="26" t="s">
+      <c r="O53" s="76"/>
+      <c r="P53" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="Q53" s="26" t="s">
+      <c r="Q53" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="R53" s="26" t="s">
+      <c r="R53" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="S53" s="26" t="s">
+      <c r="S53" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="T53" s="26" t="s">
+      <c r="T53" s="76" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="O54" s="24" t="s">
+      <c r="O54" t="s">
         <v>26</v>
       </c>
-      <c r="P54" s="24">
+      <c r="P54">
         <v>1</v>
       </c>
-      <c r="Q54" s="24">
+      <c r="Q54">
         <v>5.7959814528593512</v>
       </c>
-      <c r="R54" s="24">
+      <c r="R54">
         <v>5.7959814528593512</v>
       </c>
-      <c r="S54" s="24">
+      <c r="S54">
         <v>5.514705882352942</v>
       </c>
-      <c r="T54" s="24">
+      <c r="T54">
         <v>7.8657775768762053E-2</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="O55" s="24" t="s">
+      <c r="O55" t="s">
         <v>27</v>
       </c>
-      <c r="P55" s="24">
+      <c r="P55">
         <v>4</v>
       </c>
-      <c r="Q55" s="24">
+      <c r="Q55">
         <v>4.2040185471406488</v>
       </c>
-      <c r="R55" s="24">
+      <c r="R55">
         <v>1.0510046367851622</v>
       </c>
-      <c r="S55" s="24"/>
-      <c r="T55" s="24"/>
     </row>
     <row r="56" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O56" s="25" t="s">
+      <c r="O56" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="P56" s="25">
+      <c r="P56" s="75">
         <v>5</v>
       </c>
-      <c r="Q56" s="25">
+      <c r="Q56" s="75">
         <v>10</v>
       </c>
-      <c r="R56" s="25"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="25"/>
+      <c r="R56" s="75"/>
+      <c r="S56" s="75"/>
+      <c r="T56" s="75"/>
     </row>
     <row r="57" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="O58" s="26"/>
-      <c r="P58" s="26" t="s">
+      <c r="O58" s="76"/>
+      <c r="P58" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="Q58" s="26" t="s">
+      <c r="Q58" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="R58" s="26" t="s">
+      <c r="R58" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="S58" s="26" t="s">
+      <c r="S58" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="T58" s="26" t="s">
+      <c r="T58" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="U58" s="26" t="s">
+      <c r="U58" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V58" s="26" t="s">
+      <c r="V58" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="W58" s="26" t="s">
+      <c r="W58" s="76" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="O59" s="24" t="s">
+      <c r="O59" t="s">
         <v>29</v>
       </c>
-      <c r="P59" s="24">
+      <c r="P59">
         <v>4.7001545595054095</v>
       </c>
-      <c r="Q59" s="24">
+      <c r="Q59">
         <v>0.8362511992316678</v>
       </c>
-      <c r="R59" s="24">
+      <c r="R59">
         <v>5.6205056134135596</v>
       </c>
-      <c r="S59" s="24">
+      <c r="S59">
         <v>4.92648550015017E-3</v>
       </c>
-      <c r="T59" s="24">
+      <c r="T59">
         <v>2.3783490106828609</v>
       </c>
-      <c r="U59" s="24">
+      <c r="U59">
         <v>7.0219601083279581</v>
       </c>
-      <c r="V59" s="24">
+      <c r="V59">
         <v>2.3783490106828609</v>
       </c>
-      <c r="W59" s="24">
+      <c r="W59">
         <v>7.0219601083279581</v>
       </c>
     </row>
     <row r="60" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O60" s="25" t="s">
+      <c r="O60" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="P60" s="25">
+      <c r="P60" s="75">
         <v>-5.7959814528593508E-2</v>
       </c>
-      <c r="Q60" s="25">
+      <c r="Q60" s="75">
         <v>2.4681173759924749E-2</v>
       </c>
-      <c r="R60" s="25">
+      <c r="R60" s="75">
         <v>-2.3483410915693104</v>
       </c>
-      <c r="S60" s="25">
+      <c r="S60" s="75">
         <v>7.8657775768762081E-2</v>
       </c>
-      <c r="T60" s="25">
+      <c r="T60" s="75">
         <v>-0.1264857386048728</v>
       </c>
-      <c r="U60" s="25">
+      <c r="U60" s="75">
         <v>1.0566109547685783E-2</v>
       </c>
-      <c r="V60" s="25">
+      <c r="V60" s="75">
         <v>-0.1264857386048728</v>
       </c>
-      <c r="W60" s="25">
+      <c r="W60" s="75">
         <v>1.0566109547685783E-2</v>
       </c>
     </row>
     <row r="68" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="69" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="71" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="79" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C80" s="69" t="s">
+      <c r="C80" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="77" t="s">
+      <c r="D80" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="E80" s="78"/>
+      <c r="E80" s="70"/>
     </row>
     <row r="81" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="70"/>
-      <c r="D81" s="16" t="s">
+      <c r="C81" s="65"/>
+      <c r="D81" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C82" s="18">
+      <c r="C82" s="17">
         <v>1</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D82" s="16">
         <v>0</v>
       </c>
-      <c r="E82" s="33">
+      <c r="E82" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="19">
+      <c r="C83" s="18">
         <v>3</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D83" s="15">
         <v>-1</v>
       </c>
-      <c r="E83" s="34">
+      <c r="E83" s="14">
         <v>1</v>
       </c>
     </row>
@@ -21364,162 +20583,166 @@
       <c r="C127" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="D127" s="75"/>
-      <c r="E127" s="76"/>
+      <c r="D127" s="73"/>
+      <c r="E127" s="72"/>
     </row>
     <row r="133" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="134" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C134" s="13" t="s">
+      <c r="C134" s="71" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="145" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="146" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C146" s="69" t="s">
+      <c r="C146" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D146" s="77" t="s">
+      <c r="D146" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="E146" s="78"/>
+      <c r="E146" s="70"/>
     </row>
     <row r="147" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C147" s="70"/>
-      <c r="D147" s="16" t="s">
+      <c r="C147" s="65"/>
+      <c r="D147" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E147" s="15" t="s">
+      <c r="E147" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="148" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C148" s="18">
+      <c r="C148" s="17">
         <v>2</v>
       </c>
-      <c r="D148" s="17">
+      <c r="D148" s="16">
         <v>0</v>
       </c>
-      <c r="E148" s="33" t="s">
+      <c r="E148" s="41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="149" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C149" s="19">
+      <c r="C149" s="18">
         <v>3</v>
       </c>
-      <c r="D149" s="16">
+      <c r="D149" s="15">
         <v>-1</v>
       </c>
-      <c r="E149" s="34" t="s">
+      <c r="E149" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="165" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="166" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C166" s="13" t="s">
+      <c r="C166" s="71" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="177" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="178" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C178" s="69" t="s">
+      <c r="C178" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D178" s="77" t="s">
+      <c r="D178" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="E178" s="78"/>
+      <c r="E178" s="70"/>
     </row>
     <row r="179" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C179" s="70"/>
-      <c r="D179" s="16" t="s">
+      <c r="C179" s="65"/>
+      <c r="D179" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E179" s="15" t="s">
+      <c r="E179" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="180" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C180" s="18">
+      <c r="C180" s="17">
         <v>1</v>
       </c>
-      <c r="D180" s="17">
+      <c r="D180" s="16">
         <v>0</v>
       </c>
-      <c r="E180" s="33" t="s">
+      <c r="E180" s="41" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="181" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C181" s="19">
+      <c r="C181" s="18">
         <v>3</v>
       </c>
-      <c r="D181" s="16">
+      <c r="D181" s="15">
         <v>-1</v>
       </c>
-      <c r="E181" s="34" t="s">
+      <c r="E181" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="196" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="197" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C197" s="13" t="s">
+      <c r="C197" s="71" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="209" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="210" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C210" s="69" t="s">
+      <c r="C210" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D210" s="71" t="s">
+      <c r="D210" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E210" s="72"/>
-      <c r="F210" s="73"/>
+      <c r="E210" s="67"/>
+      <c r="F210" s="68"/>
     </row>
     <row r="211" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C211" s="70"/>
-      <c r="D211" s="16" t="s">
+      <c r="C211" s="65"/>
+      <c r="D211" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E211" s="14" t="s">
+      <c r="E211" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F211" s="15" t="s">
+      <c r="F211" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="212" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C212" s="18">
+      <c r="C212" s="17">
         <v>1</v>
       </c>
-      <c r="D212" s="35">
+      <c r="D212" s="16">
         <v>-1</v>
       </c>
-      <c r="E212" s="37" t="s">
+      <c r="E212" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="F212" s="38" t="s">
+      <c r="F212" s="33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="213" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C213" s="19">
+      <c r="C213" s="18">
         <v>2</v>
       </c>
-      <c r="D213" s="36" t="s">
+      <c r="D213" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E213" s="39">
+      <c r="E213" s="34">
         <v>-1</v>
       </c>
-      <c r="F213" s="40" t="s">
+      <c r="F213" s="35" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="D178:E178"/>
     <mergeCell ref="C210:C211"/>
     <mergeCell ref="D210:F210"/>
     <mergeCell ref="C6:E6"/>
@@ -21528,10 +20751,6 @@
     <mergeCell ref="C80:C81"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="D178:E178"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21542,94 +20761,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA14916-5AEE-4672-99A3-F981DB0B2A28}">
   <dimension ref="C8:V62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="8" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="51" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="47">
+      <c r="C10" s="39">
         <v>2</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="40">
         <v>2</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="40">
         <v>4</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="45">
+      <c r="C11" s="37">
         <v>1</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="36">
         <v>3</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="36">
         <v>4</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="45">
+      <c r="C12" s="37">
         <v>1</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="36">
         <v>4</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="36">
         <v>5</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="45">
+      <c r="C13" s="37">
         <v>0</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="36">
         <v>5</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="36">
         <v>6</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="62">
+      <c r="C14" s="54">
         <v>1</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>6</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>6</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>3</v>
       </c>
     </row>
@@ -21673,48 +20892,48 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="N21" s="27" t="s">
+      <c r="N21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O21" s="27"/>
+      <c r="O21" s="26"/>
     </row>
     <row r="22" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="N22" s="24" t="s">
+      <c r="N22" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="24">
+      <c r="O22" s="23">
         <v>0.70710678118654757</v>
       </c>
     </row>
     <row r="23" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="N23" s="24" t="s">
+      <c r="N23" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="O23" s="24">
+      <c r="O23" s="23">
         <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="N24" s="24" t="s">
+      <c r="N24" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O24" s="24">
+      <c r="O24" s="23">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="25" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="N25" s="24" t="s">
+      <c r="N25" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O25" s="24">
+      <c r="O25" s="23">
         <v>0.57735026918962573</v>
       </c>
     </row>
     <row r="26" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N26" s="25" t="s">
+      <c r="N26" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="24">
         <v>5</v>
       </c>
     </row>
@@ -21724,156 +20943,156 @@
       </c>
     </row>
     <row r="29" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="N29" s="26"/>
-      <c r="O29" s="26" t="s">
+      <c r="N29" s="25"/>
+      <c r="O29" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="26" t="s">
+      <c r="P29" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="Q29" s="26" t="s">
+      <c r="Q29" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="R29" s="26" t="s">
+      <c r="R29" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="S29" s="26" t="s">
+      <c r="S29" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O30" s="23">
         <v>1</v>
       </c>
-      <c r="P30" s="24">
+      <c r="P30" s="23">
         <v>1</v>
       </c>
-      <c r="Q30" s="24">
+      <c r="Q30" s="23">
         <v>1</v>
       </c>
-      <c r="R30" s="24">
+      <c r="R30" s="23">
         <v>3</v>
       </c>
-      <c r="S30" s="24">
+      <c r="S30" s="23">
         <v>0.18169011381620931</v>
       </c>
     </row>
     <row r="31" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="N31" s="24" t="s">
+      <c r="N31" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="O31" s="24">
+      <c r="O31" s="23">
         <v>3</v>
       </c>
-      <c r="P31" s="24">
+      <c r="P31" s="23">
         <v>0.99999999999999989</v>
       </c>
-      <c r="Q31" s="24">
+      <c r="Q31" s="23">
         <v>0.33333333333333331</v>
       </c>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
     </row>
     <row r="32" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N32" s="25" t="s">
+      <c r="N32" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="O32" s="25">
+      <c r="O32" s="24">
         <v>4</v>
       </c>
-      <c r="P32" s="25">
+      <c r="P32" s="24">
         <v>2</v>
       </c>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="25"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
     </row>
     <row r="33" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N34" s="26"/>
-      <c r="O34" s="26" t="s">
+      <c r="N34" s="25"/>
+      <c r="O34" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="P34" s="26" t="s">
+      <c r="P34" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Q34" s="26" t="s">
+      <c r="Q34" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="R34" s="26" t="s">
+      <c r="R34" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="S34" s="26" t="s">
+      <c r="S34" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="T34" s="26" t="s">
+      <c r="T34" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="U34" s="26" t="s">
+      <c r="U34" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="V34" s="26" t="s">
+      <c r="V34" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N35" s="24" t="s">
+      <c r="N35" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="O35" s="24">
+      <c r="O35" s="23">
         <v>2</v>
       </c>
-      <c r="P35" s="24">
+      <c r="P35" s="23">
         <v>0.63245553203367577</v>
       </c>
-      <c r="Q35" s="24">
+      <c r="Q35" s="23">
         <v>3.16227766016838</v>
       </c>
-      <c r="R35" s="24">
+      <c r="R35" s="23">
         <v>5.078186628649372E-2</v>
       </c>
-      <c r="S35" s="24">
+      <c r="S35" s="23">
         <v>-1.2755771176813813E-2</v>
       </c>
-      <c r="T35" s="24">
+      <c r="T35" s="23">
         <v>4.0127557711768134</v>
       </c>
-      <c r="U35" s="24">
+      <c r="U35" s="23">
         <v>-1.2755771176813813E-2</v>
       </c>
-      <c r="V35" s="24">
+      <c r="V35" s="23">
         <v>4.0127557711768134</v>
       </c>
     </row>
     <row r="36" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N36" s="25" t="s">
+      <c r="N36" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="O36" s="25">
+      <c r="O36" s="24">
         <v>-0.5</v>
       </c>
-      <c r="P36" s="25">
+      <c r="P36" s="24">
         <v>0.28867513459481287</v>
       </c>
-      <c r="Q36" s="25">
+      <c r="Q36" s="24">
         <v>-1.7320508075688774</v>
       </c>
-      <c r="R36" s="25">
+      <c r="R36" s="24">
         <v>0.18169011381620931</v>
       </c>
-      <c r="S36" s="25">
+      <c r="S36" s="24">
         <v>-1.4186931155185396</v>
       </c>
-      <c r="T36" s="25">
+      <c r="T36" s="24">
         <v>0.4186931155185396</v>
       </c>
-      <c r="U36" s="25">
+      <c r="U36" s="24">
         <v>-1.4186931155185396</v>
       </c>
-      <c r="V36" s="25">
+      <c r="V36" s="24">
         <v>0.4186931155185396</v>
       </c>
     </row>
@@ -21884,48 +21103,48 @@
     </row>
     <row r="46" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N47" s="27" t="s">
+      <c r="N47" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O47" s="27"/>
+      <c r="O47" s="26"/>
     </row>
     <row r="48" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N48" s="24" t="s">
+      <c r="N48" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="O48" s="24">
+      <c r="O48" s="23">
         <v>0.67082039324993681</v>
       </c>
     </row>
     <row r="49" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N49" s="24" t="s">
+      <c r="N49" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="O49" s="24">
+      <c r="O49" s="23">
         <v>0.4499999999999999</v>
       </c>
     </row>
     <row r="50" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N50" s="24" t="s">
+      <c r="N50" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O50" s="24">
+      <c r="O50" s="23">
         <v>0.26666666666666655</v>
       </c>
     </row>
     <row r="51" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N51" s="24" t="s">
+      <c r="N51" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="O51" s="24">
+      <c r="O51" s="23">
         <v>1.3540064007726602</v>
       </c>
     </row>
     <row r="52" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N52" s="25" t="s">
+      <c r="N52" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O52" s="25">
+      <c r="O52" s="24">
         <v>5</v>
       </c>
     </row>
@@ -21935,156 +21154,156 @@
       </c>
     </row>
     <row r="55" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N55" s="26"/>
-      <c r="O55" s="26" t="s">
+      <c r="N55" s="25"/>
+      <c r="O55" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="P55" s="26" t="s">
+      <c r="P55" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="Q55" s="26" t="s">
+      <c r="Q55" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="R55" s="26" t="s">
+      <c r="R55" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="S55" s="26" t="s">
+      <c r="S55" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="56" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N56" s="24" t="s">
+      <c r="N56" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="O56" s="24">
+      <c r="O56" s="23">
         <v>1</v>
       </c>
-      <c r="P56" s="24">
+      <c r="P56" s="23">
         <v>4.4999999999999991</v>
       </c>
-      <c r="Q56" s="24">
+      <c r="Q56" s="23">
         <v>4.4999999999999991</v>
       </c>
-      <c r="R56" s="24">
+      <c r="R56" s="23">
         <v>2.4545454545454537</v>
       </c>
-      <c r="S56" s="24">
+      <c r="S56" s="23">
         <v>0.21516994256955027</v>
       </c>
     </row>
     <row r="57" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N57" s="24" t="s">
+      <c r="N57" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="O57" s="24">
+      <c r="O57" s="23">
         <v>3</v>
       </c>
-      <c r="P57" s="24">
+      <c r="P57" s="23">
         <v>5.5000000000000009</v>
       </c>
-      <c r="Q57" s="24">
+      <c r="Q57" s="23">
         <v>1.8333333333333337</v>
       </c>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="23"/>
     </row>
     <row r="58" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N58" s="25" t="s">
+      <c r="N58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="O58" s="25">
+      <c r="O58" s="24">
         <v>4</v>
       </c>
-      <c r="P58" s="25">
+      <c r="P58" s="24">
         <v>10</v>
       </c>
-      <c r="Q58" s="25"/>
-      <c r="R58" s="25"/>
-      <c r="S58" s="25"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
     </row>
     <row r="59" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N60" s="26"/>
-      <c r="O60" s="26" t="s">
+      <c r="N60" s="25"/>
+      <c r="O60" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="P60" s="26" t="s">
+      <c r="P60" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Q60" s="26" t="s">
+      <c r="Q60" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="R60" s="26" t="s">
+      <c r="R60" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="S60" s="26" t="s">
+      <c r="S60" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="T60" s="26" t="s">
+      <c r="T60" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="U60" s="26" t="s">
+      <c r="U60" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="V60" s="26" t="s">
+      <c r="V60" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="61" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N61" s="24" t="s">
+      <c r="N61" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="O61" s="24">
+      <c r="O61" s="23">
         <v>5.5</v>
       </c>
-      <c r="P61" s="24">
+      <c r="P61" s="23">
         <v>1.132843031197762</v>
       </c>
-      <c r="Q61" s="24">
+      <c r="Q61" s="23">
         <v>4.8550415622761225</v>
       </c>
-      <c r="R61" s="24">
+      <c r="R61" s="23">
         <v>1.6681797726987017E-2</v>
       </c>
-      <c r="S61" s="24">
+      <c r="S61" s="23">
         <v>1.894787880898285</v>
       </c>
-      <c r="T61" s="24">
+      <c r="T61" s="23">
         <v>9.105212119101715</v>
       </c>
-      <c r="U61" s="24">
+      <c r="U61" s="23">
         <v>1.894787880898285</v>
       </c>
-      <c r="V61" s="24">
+      <c r="V61" s="23">
         <v>9.105212119101715</v>
       </c>
     </row>
     <row r="62" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N62" s="25" t="s">
+      <c r="N62" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="25">
+      <c r="O62" s="24">
         <v>-1.4999999999999998</v>
       </c>
-      <c r="P62" s="25">
+      <c r="P62" s="24">
         <v>0.9574271077563381</v>
       </c>
-      <c r="Q62" s="25">
+      <c r="Q62" s="24">
         <v>-1.5666989036012804</v>
       </c>
-      <c r="R62" s="25">
+      <c r="R62" s="24">
         <v>0.21516994256955019</v>
       </c>
-      <c r="S62" s="25">
+      <c r="S62" s="24">
         <v>-4.546960361657626</v>
       </c>
-      <c r="T62" s="25">
+      <c r="T62" s="24">
         <v>1.5469603616576262</v>
       </c>
-      <c r="U62" s="25">
+      <c r="U62" s="24">
         <v>-4.546960361657626</v>
       </c>
-      <c r="V62" s="25">
+      <c r="V62" s="24">
         <v>1.5469603616576262</v>
       </c>
     </row>
@@ -22117,7 +21336,7 @@
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="63">
+      <c r="C15" s="55">
         <v>-1</v>
       </c>
       <c r="D15" s="5">
@@ -22128,7 +21347,7 @@
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="56" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="4">
@@ -22139,7 +21358,7 @@
       </c>
     </row>
     <row r="17" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="57" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -22159,56 +21378,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CFDEBE-CCE0-4570-9058-A19BEDCB7EB5}">
   <dimension ref="B5:AF114"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M95" sqref="M95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="58" t="s">
+      <c r="G6" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="67" t="s">
+      <c r="L6" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="58" t="s">
+      <c r="N6" s="50" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="47">
+      <c r="D7" s="39">
         <v>2</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="40">
         <v>1</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="40">
         <v>2</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="40">
         <v>1</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="41">
         <v>1</v>
       </c>
       <c r="J7">
@@ -22219,27 +21438,27 @@
         <f>0.5+0.5*G7+1.5*H7</f>
         <v>2.5</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="40">
         <v>1</v>
       </c>
-      <c r="N7" s="48">
+      <c r="N7" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="45">
+      <c r="D8" s="37">
         <v>3</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="36">
         <v>0</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="36">
         <v>2</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="36">
         <v>1</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="38">
         <v>1</v>
       </c>
       <c r="J8">
@@ -22250,27 +21469,27 @@
         <f t="shared" ref="L8:L11" si="1">0.5+0.5*G8+1.5*H8</f>
         <v>2.5</v>
       </c>
-      <c r="M8" s="44">
+      <c r="M8" s="36">
         <v>0</v>
       </c>
-      <c r="N8" s="44">
+      <c r="N8" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="45">
+      <c r="D9" s="37">
         <v>2</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="36">
         <v>1</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="36">
         <v>3</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="36">
         <v>0</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="38">
         <v>1</v>
       </c>
       <c r="J9">
@@ -22281,27 +21500,27 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M9" s="44">
+      <c r="M9" s="36">
         <v>1</v>
       </c>
-      <c r="N9" s="44">
+      <c r="N9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="45">
+      <c r="D10" s="37">
         <v>2</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="36">
         <v>1</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="36">
         <v>2</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="36">
         <v>0</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="38">
         <v>1</v>
       </c>
       <c r="J10">
@@ -22312,27 +21531,27 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M10" s="44">
+      <c r="M10" s="36">
         <v>1</v>
       </c>
-      <c r="N10" s="44">
+      <c r="N10" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="62">
+      <c r="D11" s="54">
         <v>1</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>2</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>3</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>1</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>0</v>
       </c>
       <c r="J11">
@@ -22343,10 +21562,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="13">
         <v>2</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="13">
         <v>1</v>
       </c>
     </row>
@@ -22385,11 +21604,22 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="L19" s="66" t="s">
+      <c r="L19" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="X19" s="66" t="s">
+      <c r="X19" s="58" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.25">
@@ -22402,82 +21632,82 @@
     </row>
     <row r="22" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="L23" s="27" t="s">
+      <c r="L23" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M23" s="27"/>
-      <c r="X23" s="27" t="s">
+      <c r="M23" s="26"/>
+      <c r="X23" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Y23" s="27"/>
+      <c r="Y23" s="26"/>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="L24" s="24" t="s">
+      <c r="L24" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="23">
         <v>0.86602540378443849</v>
       </c>
-      <c r="X24" s="24" t="s">
+      <c r="X24" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="Y24" s="24">
+      <c r="Y24" s="23">
         <v>0.86602540378443849</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="L25" s="24" t="s">
+      <c r="L25" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M25" s="23">
         <v>0.74999999999999978</v>
       </c>
-      <c r="X25" s="24" t="s">
+      <c r="X25" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="Y25" s="24">
+      <c r="Y25" s="23">
         <v>0.74999999999999978</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="L26" s="24" t="s">
+      <c r="L26" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="23">
         <v>0.49999999999999956</v>
       </c>
-      <c r="X26" s="24" t="s">
+      <c r="X26" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="Y26" s="24">
+      <c r="Y26" s="23">
         <v>0.49999999999999956</v>
       </c>
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="L27" s="24" t="s">
+      <c r="L27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="24">
+      <c r="M27" s="23">
         <v>0.50000000000000022</v>
       </c>
-      <c r="X27" s="24" t="s">
+      <c r="X27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="Y27" s="24">
+      <c r="Y27" s="23">
         <v>0.50000000000000022</v>
       </c>
     </row>
     <row r="28" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M28" s="25">
+      <c r="M28" s="24">
         <v>5</v>
       </c>
-      <c r="X28" s="25" t="s">
+      <c r="X28" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="Y28" s="25">
+      <c r="Y28" s="24">
         <v>5</v>
       </c>
     </row>
@@ -22490,356 +21720,356 @@
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="L31" s="26"/>
-      <c r="M31" s="26" t="s">
+      <c r="L31" s="25"/>
+      <c r="M31" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N31" s="26" t="s">
+      <c r="N31" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O31" s="26" t="s">
+      <c r="O31" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P31" s="26" t="s">
+      <c r="P31" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Q31" s="26" t="s">
+      <c r="Q31" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26" t="s">
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="Z31" s="26" t="s">
+      <c r="Z31" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AA31" s="26" t="s">
+      <c r="AA31" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AB31" s="26" t="s">
+      <c r="AB31" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AC31" s="26" t="s">
+      <c r="AC31" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="L32" s="24" t="s">
+      <c r="L32" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="23">
         <v>2</v>
       </c>
-      <c r="N32" s="24">
+      <c r="N32" s="23">
         <v>1.4999999999999996</v>
       </c>
-      <c r="O32" s="24">
+      <c r="O32" s="23">
         <v>0.74999999999999978</v>
       </c>
-      <c r="P32" s="24">
+      <c r="P32" s="23">
         <v>2.9999999999999964</v>
       </c>
-      <c r="Q32" s="24">
+      <c r="Q32" s="23">
         <v>0.25000000000000022</v>
       </c>
-      <c r="X32" s="24" t="s">
+      <c r="X32" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="Y32" s="24">
+      <c r="Y32" s="23">
         <v>2</v>
       </c>
-      <c r="Z32" s="24">
+      <c r="Z32" s="23">
         <v>1.4999999999999996</v>
       </c>
-      <c r="AA32" s="24">
+      <c r="AA32" s="23">
         <v>0.74999999999999978</v>
       </c>
-      <c r="AB32" s="24">
+      <c r="AB32" s="23">
         <v>2.9999999999999964</v>
       </c>
-      <c r="AC32" s="24">
+      <c r="AC32" s="23">
         <v>0.25000000000000022</v>
       </c>
     </row>
     <row r="33" spans="12:32" x14ac:dyDescent="0.25">
-      <c r="L33" s="24" t="s">
+      <c r="L33" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M33" s="24">
+      <c r="M33" s="23">
         <v>2</v>
       </c>
-      <c r="N33" s="24">
+      <c r="N33" s="23">
         <v>0.50000000000000044</v>
       </c>
-      <c r="O33" s="24">
+      <c r="O33" s="23">
         <v>0.25000000000000022</v>
       </c>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="X33" s="24" t="s">
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="X33" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="Y33" s="24">
+      <c r="Y33" s="23">
         <v>2</v>
       </c>
-      <c r="Z33" s="24">
+      <c r="Z33" s="23">
         <v>0.50000000000000044</v>
       </c>
-      <c r="AA33" s="24">
+      <c r="AA33" s="23">
         <v>0.25000000000000022</v>
       </c>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
     </row>
     <row r="34" spans="12:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L34" s="25" t="s">
+      <c r="L34" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="M34" s="25">
+      <c r="M34" s="24">
         <v>4</v>
       </c>
-      <c r="N34" s="25">
+      <c r="N34" s="24">
         <v>2</v>
       </c>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="X34" s="25" t="s">
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="X34" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="Y34" s="25">
+      <c r="Y34" s="24">
         <v>4</v>
       </c>
-      <c r="Z34" s="25">
+      <c r="Z34" s="24">
         <v>2</v>
       </c>
-      <c r="AA34" s="25"/>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="25"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="24"/>
     </row>
     <row r="35" spans="12:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="12:32" x14ac:dyDescent="0.25">
-      <c r="L36" s="26"/>
-      <c r="M36" s="26" t="s">
+      <c r="L36" s="25"/>
+      <c r="M36" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="N36" s="26" t="s">
+      <c r="N36" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="O36" s="26" t="s">
+      <c r="O36" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P36" s="26" t="s">
+      <c r="P36" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Q36" s="26" t="s">
+      <c r="Q36" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="R36" s="26" t="s">
+      <c r="R36" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="S36" s="26" t="s">
+      <c r="S36" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="T36" s="26" t="s">
+      <c r="T36" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26" t="s">
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="Z36" s="26" t="s">
+      <c r="Z36" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AA36" s="26" t="s">
+      <c r="AA36" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AB36" s="26" t="s">
+      <c r="AB36" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AC36" s="26" t="s">
+      <c r="AC36" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AD36" s="26" t="s">
+      <c r="AD36" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AE36" s="26" t="s">
+      <c r="AE36" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AF36" s="26" t="s">
+      <c r="AF36" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="37" spans="12:32" x14ac:dyDescent="0.25">
-      <c r="L37" s="24" t="s">
+      <c r="L37" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M37" s="24">
+      <c r="M37" s="23">
         <v>0.49999999999999933</v>
       </c>
-      <c r="N37" s="24">
+      <c r="N37" s="23">
         <v>0.70710678118654779</v>
       </c>
-      <c r="O37" s="24">
+      <c r="O37" s="23">
         <v>0.70710678118654635</v>
       </c>
-      <c r="P37" s="24">
+      <c r="P37" s="23">
         <v>0.55278640450004279</v>
       </c>
-      <c r="Q37" s="24">
+      <c r="Q37" s="23">
         <v>-2.5424349222966569</v>
       </c>
-      <c r="R37" s="24">
+      <c r="R37" s="23">
         <v>3.542434922296656</v>
       </c>
-      <c r="S37" s="24">
+      <c r="S37" s="23">
         <v>-2.5424349222966569</v>
       </c>
-      <c r="T37" s="24">
+      <c r="T37" s="23">
         <v>3.542434922296656</v>
       </c>
-      <c r="X37" s="24" t="s">
+      <c r="X37" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="Y37" s="24">
+      <c r="Y37" s="23">
         <v>2.5000000000000009</v>
       </c>
-      <c r="Z37" s="24">
+      <c r="Z37" s="23">
         <v>0.70710678118654779</v>
       </c>
-      <c r="AA37" s="24">
+      <c r="AA37" s="23">
         <v>3.5355339059327373</v>
       </c>
-      <c r="AB37" s="24">
+      <c r="AB37" s="23">
         <v>7.1523309114740696E-2</v>
       </c>
-      <c r="AC37" s="24">
+      <c r="AC37" s="23">
         <v>-0.54243492229665558</v>
       </c>
-      <c r="AD37" s="24">
+      <c r="AD37" s="23">
         <v>5.5424349222966569</v>
       </c>
-      <c r="AE37" s="24">
+      <c r="AE37" s="23">
         <v>-0.54243492229665558</v>
       </c>
-      <c r="AF37" s="24">
+      <c r="AF37" s="23">
         <v>5.5424349222966569</v>
       </c>
     </row>
     <row r="38" spans="12:32" x14ac:dyDescent="0.25">
-      <c r="L38" s="24" t="s">
+      <c r="L38" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M38" s="24">
+      <c r="M38" s="23">
         <v>0.50000000000000033</v>
       </c>
-      <c r="N38" s="24">
+      <c r="N38" s="23">
         <v>0.50000000000000022</v>
       </c>
-      <c r="O38" s="24">
+      <c r="O38" s="23">
         <v>1.0000000000000002</v>
       </c>
-      <c r="P38" s="24">
+      <c r="P38" s="23">
         <v>0.42264973081037416</v>
       </c>
-      <c r="Q38" s="24">
+      <c r="Q38" s="23">
         <v>-1.6513263648747323</v>
       </c>
-      <c r="R38" s="24">
+      <c r="R38" s="23">
         <v>2.6513263648747332</v>
       </c>
-      <c r="S38" s="24">
+      <c r="S38" s="23">
         <v>-1.6513263648747323</v>
       </c>
-      <c r="T38" s="24">
+      <c r="T38" s="23">
         <v>2.6513263648747332</v>
       </c>
-      <c r="X38" s="24" t="s">
+      <c r="X38" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Y38" s="24">
+      <c r="Y38" s="23">
         <v>-0.50000000000000033</v>
       </c>
-      <c r="Z38" s="24">
+      <c r="Z38" s="23">
         <v>0.50000000000000022</v>
       </c>
-      <c r="AA38" s="24">
+      <c r="AA38" s="23">
         <v>-1.0000000000000002</v>
       </c>
-      <c r="AB38" s="24">
+      <c r="AB38" s="23">
         <v>0.42264973081037416</v>
       </c>
-      <c r="AC38" s="24">
+      <c r="AC38" s="23">
         <v>-2.6513263648747332</v>
       </c>
-      <c r="AD38" s="24">
+      <c r="AD38" s="23">
         <v>1.6513263648747323</v>
       </c>
-      <c r="AE38" s="24">
+      <c r="AE38" s="23">
         <v>-2.6513263648747332</v>
       </c>
-      <c r="AF38" s="24">
+      <c r="AF38" s="23">
         <v>1.6513263648747323</v>
       </c>
     </row>
     <row r="39" spans="12:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L39" s="25" t="s">
+      <c r="L39" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M39" s="25">
+      <c r="M39" s="24">
         <v>1.5000000000000004</v>
       </c>
-      <c r="N39" s="25">
+      <c r="N39" s="24">
         <v>0.6123724356957948</v>
       </c>
-      <c r="O39" s="25">
+      <c r="O39" s="24">
         <v>2.4494897427831779</v>
       </c>
-      <c r="P39" s="25">
+      <c r="P39" s="24">
         <v>0.13397459621556129</v>
       </c>
-      <c r="Q39" s="25">
+      <c r="Q39" s="24">
         <v>-1.1348259320698388</v>
       </c>
-      <c r="R39" s="25">
+      <c r="R39" s="24">
         <v>4.1348259320698393</v>
       </c>
-      <c r="S39" s="25">
+      <c r="S39" s="24">
         <v>-1.1348259320698388</v>
       </c>
-      <c r="T39" s="25">
+      <c r="T39" s="24">
         <v>4.1348259320698393</v>
       </c>
-      <c r="X39" s="25" t="s">
+      <c r="X39" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Y39" s="25">
+      <c r="Y39" s="24">
         <v>-1.5000000000000004</v>
       </c>
-      <c r="Z39" s="25">
+      <c r="Z39" s="24">
         <v>0.6123724356957948</v>
       </c>
-      <c r="AA39" s="25">
+      <c r="AA39" s="24">
         <v>-2.4494897427831779</v>
       </c>
-      <c r="AB39" s="25">
+      <c r="AB39" s="24">
         <v>0.13397459621556129</v>
       </c>
-      <c r="AC39" s="25">
+      <c r="AC39" s="24">
         <v>-4.1348259320698393</v>
       </c>
-      <c r="AD39" s="25">
+      <c r="AD39" s="24">
         <v>1.1348259320698388</v>
       </c>
-      <c r="AE39" s="25">
+      <c r="AE39" s="24">
         <v>-4.1348259320698393</v>
       </c>
-      <c r="AF39" s="25">
+      <c r="AF39" s="24">
         <v>1.1348259320698388</v>
       </c>
     </row>
     <row r="44" spans="12:32" x14ac:dyDescent="0.25">
-      <c r="L44" s="66" t="s">
+      <c r="L44" s="58" t="s">
         <v>8</v>
       </c>
     </row>
@@ -22850,48 +22080,48 @@
     </row>
     <row r="47" spans="12:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="12:32" x14ac:dyDescent="0.25">
-      <c r="L48" s="27" t="s">
+      <c r="L48" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M48" s="27"/>
+      <c r="M48" s="26"/>
     </row>
     <row r="49" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L49" s="24" t="s">
+      <c r="L49" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M49" s="24">
+      <c r="M49" s="23">
         <v>0.76376261582597338</v>
       </c>
     </row>
     <row r="50" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L50" s="24" t="s">
+      <c r="L50" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M50" s="24">
+      <c r="M50" s="23">
         <v>0.58333333333333348</v>
       </c>
     </row>
     <row r="51" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L51" s="24" t="s">
+      <c r="L51" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M51" s="24">
+      <c r="M51" s="23">
         <v>0.16666666666666696</v>
       </c>
     </row>
     <row r="52" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L52" s="24" t="s">
+      <c r="L52" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M52" s="24">
+      <c r="M52" s="23">
         <v>0.49999999999999989</v>
       </c>
     </row>
     <row r="53" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L53" s="25" t="s">
+      <c r="L53" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M53" s="25">
+      <c r="M53" s="24">
         <v>5</v>
       </c>
     </row>
@@ -22901,190 +22131,190 @@
       </c>
     </row>
     <row r="56" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L56" s="26"/>
-      <c r="M56" s="26" t="s">
+      <c r="L56" s="25"/>
+      <c r="M56" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N56" s="26" t="s">
+      <c r="N56" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O56" s="26" t="s">
+      <c r="O56" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P56" s="26" t="s">
+      <c r="P56" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Q56" s="26" t="s">
+      <c r="Q56" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="57" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L57" s="24" t="s">
+      <c r="L57" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="M57" s="24">
+      <c r="M57" s="23">
         <v>2</v>
       </c>
-      <c r="N57" s="24">
+      <c r="N57" s="23">
         <v>0.70000000000000018</v>
       </c>
-      <c r="O57" s="24">
+      <c r="O57" s="23">
         <v>0.35000000000000009</v>
       </c>
-      <c r="P57" s="24">
+      <c r="P57" s="23">
         <v>1.400000000000001</v>
       </c>
-      <c r="Q57" s="24">
+      <c r="Q57" s="23">
         <v>0.41666666666666646</v>
       </c>
     </row>
     <row r="58" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L58" s="24" t="s">
+      <c r="L58" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M58" s="24">
+      <c r="M58" s="23">
         <v>2</v>
       </c>
-      <c r="N58" s="24">
+      <c r="N58" s="23">
         <v>0.49999999999999978</v>
       </c>
-      <c r="O58" s="24">
+      <c r="O58" s="23">
         <v>0.24999999999999989</v>
       </c>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
     </row>
     <row r="59" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L59" s="25" t="s">
+      <c r="L59" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="M59" s="25">
+      <c r="M59" s="24">
         <v>4</v>
       </c>
-      <c r="N59" s="25">
+      <c r="N59" s="24">
         <v>1.2</v>
       </c>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="25"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
     </row>
     <row r="60" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L61" s="26"/>
-      <c r="M61" s="26" t="s">
+      <c r="L61" s="25"/>
+      <c r="M61" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="N61" s="26" t="s">
+      <c r="N61" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="O61" s="26" t="s">
+      <c r="O61" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P61" s="26" t="s">
+      <c r="P61" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Q61" s="26" t="s">
+      <c r="Q61" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="R61" s="26" t="s">
+      <c r="R61" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="S61" s="26" t="s">
+      <c r="S61" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="T61" s="26" t="s">
+      <c r="T61" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="62" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L62" s="24" t="s">
+      <c r="L62" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M62" s="24">
+      <c r="M62" s="23">
         <v>3.5</v>
       </c>
-      <c r="N62" s="24">
+      <c r="N62" s="23">
         <v>0.70710678118654735</v>
       </c>
-      <c r="O62" s="24">
+      <c r="O62" s="23">
         <v>4.9497474683058336</v>
       </c>
-      <c r="P62" s="24">
+      <c r="P62" s="23">
         <v>3.8476052359176824E-2</v>
       </c>
-      <c r="Q62" s="24">
+      <c r="Q62" s="23">
         <v>0.45756507770334531</v>
       </c>
-      <c r="R62" s="24">
+      <c r="R62" s="23">
         <v>6.5424349222966551</v>
       </c>
-      <c r="S62" s="24">
+      <c r="S62" s="23">
         <v>0.45756507770334531</v>
       </c>
-      <c r="T62" s="24">
+      <c r="T62" s="23">
         <v>6.5424349222966551</v>
       </c>
     </row>
     <row r="63" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L63" s="24" t="s">
+      <c r="L63" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M63" s="24">
+      <c r="M63" s="23">
         <v>-0.50000000000000022</v>
       </c>
-      <c r="N63" s="24">
+      <c r="N63" s="23">
         <v>0.49999999999999989</v>
       </c>
-      <c r="O63" s="24">
+      <c r="O63" s="23">
         <v>-1.0000000000000007</v>
       </c>
-      <c r="P63" s="24">
+      <c r="P63" s="23">
         <v>0.42264973081037405</v>
       </c>
-      <c r="Q63" s="24">
+      <c r="Q63" s="23">
         <v>-2.6513263648747314</v>
       </c>
-      <c r="R63" s="24">
+      <c r="R63" s="23">
         <v>1.6513263648747312</v>
       </c>
-      <c r="S63" s="24">
+      <c r="S63" s="23">
         <v>-2.6513263648747314</v>
       </c>
-      <c r="T63" s="24">
+      <c r="T63" s="23">
         <v>1.6513263648747312</v>
       </c>
     </row>
     <row r="64" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L64" s="25" t="s">
+      <c r="L64" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M64" s="25">
+      <c r="M64" s="24">
         <v>-1</v>
       </c>
-      <c r="N64" s="25">
+      <c r="N64" s="24">
         <v>0.61237243569579436</v>
       </c>
-      <c r="O64" s="25">
+      <c r="O64" s="24">
         <v>-1.6329931618554525</v>
       </c>
-      <c r="P64" s="25">
+      <c r="P64" s="24">
         <v>0.24407105398154538</v>
       </c>
-      <c r="Q64" s="25">
+      <c r="Q64" s="24">
         <v>-3.6348259320698375</v>
       </c>
-      <c r="R64" s="25">
+      <c r="R64" s="24">
         <v>1.6348259320698375</v>
       </c>
-      <c r="S64" s="25">
+      <c r="S64" s="24">
         <v>-3.6348259320698375</v>
       </c>
-      <c r="T64" s="25">
+      <c r="T64" s="24">
         <v>1.6348259320698375</v>
       </c>
     </row>
     <row r="71" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L71" s="66" t="s">
+      <c r="L71" s="58" t="s">
         <v>63</v>
       </c>
     </row>
@@ -23095,48 +22325,48 @@
     </row>
     <row r="73" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L74" s="27" t="s">
+      <c r="L74" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M74" s="27"/>
+      <c r="M74" s="26"/>
     </row>
     <row r="75" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L75" s="24" t="s">
+      <c r="L75" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M75" s="24">
+      <c r="M75" s="23">
         <v>0.84515425472851657</v>
       </c>
     </row>
     <row r="76" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L76" s="24" t="s">
+      <c r="L76" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M76" s="24">
+      <c r="M76" s="23">
         <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="77" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L77" s="24" t="s">
+      <c r="L77" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M77" s="24">
+      <c r="M77" s="23">
         <v>0.61904761904761907</v>
       </c>
     </row>
     <row r="78" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L78" s="24" t="s">
+      <c r="L78" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M78" s="24">
+      <c r="M78" s="23">
         <v>0.2581988897471611</v>
       </c>
     </row>
     <row r="79" spans="12:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L79" s="25" t="s">
+      <c r="L79" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M79" s="25">
+      <c r="M79" s="24">
         <v>5</v>
       </c>
     </row>
@@ -23146,156 +22376,156 @@
       </c>
     </row>
     <row r="82" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L82" s="26"/>
-      <c r="M82" s="26" t="s">
+      <c r="L82" s="25"/>
+      <c r="M82" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N82" s="26" t="s">
+      <c r="N82" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O82" s="26" t="s">
+      <c r="O82" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P82" s="26" t="s">
+      <c r="P82" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Q82" s="26" t="s">
+      <c r="Q82" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="83" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L83" s="24" t="s">
+      <c r="L83" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="M83" s="24">
+      <c r="M83" s="23">
         <v>1</v>
       </c>
-      <c r="N83" s="24">
+      <c r="N83" s="23">
         <v>0.49999999999999994</v>
       </c>
-      <c r="O83" s="24">
+      <c r="O83" s="23">
         <v>0.49999999999999994</v>
       </c>
-      <c r="P83" s="24">
+      <c r="P83" s="23">
         <v>7.4999999999999991</v>
       </c>
-      <c r="Q83" s="24">
+      <c r="Q83" s="23">
         <v>7.1421538231450199E-2</v>
       </c>
     </row>
     <row r="84" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L84" s="24" t="s">
+      <c r="L84" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M84" s="24">
+      <c r="M84" s="23">
         <v>3</v>
       </c>
-      <c r="N84" s="24">
+      <c r="N84" s="23">
         <v>0.2</v>
       </c>
-      <c r="O84" s="24">
+      <c r="O84" s="23">
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
+      <c r="P84" s="23"/>
+      <c r="Q84" s="23"/>
     </row>
     <row r="85" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L85" s="25" t="s">
+      <c r="L85" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="M85" s="25">
+      <c r="M85" s="24">
         <v>4</v>
       </c>
-      <c r="N85" s="25">
+      <c r="N85" s="24">
         <v>0.7</v>
       </c>
-      <c r="O85" s="25"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="25"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="24"/>
     </row>
     <row r="86" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L87" s="26"/>
-      <c r="M87" s="26" t="s">
+      <c r="L87" s="25"/>
+      <c r="M87" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="N87" s="26" t="s">
+      <c r="N87" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="O87" s="26" t="s">
+      <c r="O87" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P87" s="26" t="s">
+      <c r="P87" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Q87" s="26" t="s">
+      <c r="Q87" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="R87" s="26" t="s">
+      <c r="R87" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="S87" s="26" t="s">
+      <c r="S87" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="T87" s="26" t="s">
+      <c r="T87" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="88" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L88" s="24" t="s">
+      <c r="L88" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M88" s="24">
+      <c r="M88" s="23">
         <v>3.4</v>
       </c>
-      <c r="N88" s="24">
+      <c r="N88" s="23">
         <v>0.38297084310253521</v>
       </c>
-      <c r="O88" s="24">
+      <c r="O88" s="23">
         <v>8.8779604537405898</v>
       </c>
-      <c r="P88" s="24">
+      <c r="P88" s="23">
         <v>3.0132990718159869E-3</v>
       </c>
-      <c r="Q88" s="24">
+      <c r="Q88" s="23">
         <v>2.1812158553369496</v>
       </c>
-      <c r="R88" s="24">
+      <c r="R88" s="23">
         <v>4.6187841446630502</v>
       </c>
-      <c r="S88" s="24">
+      <c r="S88" s="23">
         <v>2.1812158553369496</v>
       </c>
-      <c r="T88" s="24">
+      <c r="T88" s="23">
         <v>4.6187841446630502</v>
       </c>
     </row>
     <row r="89" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L89" s="25" t="s">
+      <c r="L89" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="25">
+      <c r="M89" s="24">
         <v>-0.49999999999999994</v>
       </c>
-      <c r="N89" s="25">
+      <c r="N89" s="24">
         <v>0.18257418583505536</v>
       </c>
-      <c r="O89" s="25">
+      <c r="O89" s="24">
         <v>-2.7386127875258306</v>
       </c>
-      <c r="P89" s="25">
+      <c r="P89" s="24">
         <v>7.1421538231450171E-2</v>
       </c>
-      <c r="Q89" s="25">
+      <c r="Q89" s="24">
         <v>-1.0810325431509531</v>
       </c>
-      <c r="R89" s="25">
+      <c r="R89" s="24">
         <v>8.1032543150953262E-2</v>
       </c>
-      <c r="S89" s="25">
+      <c r="S89" s="24">
         <v>-1.0810325431509531</v>
       </c>
-      <c r="T89" s="25">
+      <c r="T89" s="24">
         <v>8.1032543150953262E-2</v>
       </c>
     </row>
@@ -23306,48 +22536,48 @@
     </row>
     <row r="97" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L98" s="27" t="s">
+      <c r="L98" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="M98" s="27"/>
+      <c r="M98" s="26"/>
     </row>
     <row r="99" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L99" s="24" t="s">
+      <c r="L99" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M99" s="24">
+      <c r="M99" s="23">
         <v>0.8660254037844386</v>
       </c>
     </row>
     <row r="100" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L100" s="24" t="s">
+      <c r="L100" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M100" s="24">
+      <c r="M100" s="23">
         <v>0.75</v>
       </c>
     </row>
     <row r="101" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L101" s="24" t="s">
+      <c r="L101" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M101" s="24">
+      <c r="M101" s="23">
         <v>0.5</v>
       </c>
     </row>
     <row r="102" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L102" s="24" t="s">
+      <c r="L102" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="M102" s="24">
+      <c r="M102" s="23">
         <v>0.4330127018922193</v>
       </c>
     </row>
     <row r="103" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L103" s="25" t="s">
+      <c r="L103" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="M103" s="25">
+      <c r="M103" s="24">
         <v>5</v>
       </c>
     </row>
@@ -23357,185 +22587,185 @@
       </c>
     </row>
     <row r="106" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L106" s="26"/>
-      <c r="M106" s="26" t="s">
+      <c r="L106" s="25"/>
+      <c r="M106" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N106" s="26" t="s">
+      <c r="N106" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O106" s="26" t="s">
+      <c r="O106" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P106" s="26" t="s">
+      <c r="P106" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Q106" s="26" t="s">
+      <c r="Q106" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="107" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L107" s="24" t="s">
+      <c r="L107" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="M107" s="24">
+      <c r="M107" s="23">
         <v>2</v>
       </c>
-      <c r="N107" s="24">
+      <c r="N107" s="23">
         <v>1.125</v>
       </c>
-      <c r="O107" s="24">
+      <c r="O107" s="23">
         <v>0.5625</v>
       </c>
-      <c r="P107" s="24">
+      <c r="P107" s="23">
         <v>3.0000000000000004</v>
       </c>
-      <c r="Q107" s="24">
+      <c r="Q107" s="23">
         <v>0.25</v>
       </c>
     </row>
     <row r="108" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L108" s="24" t="s">
+      <c r="L108" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="M108" s="24">
+      <c r="M108" s="23">
         <v>2</v>
       </c>
-      <c r="N108" s="24">
+      <c r="N108" s="23">
         <v>0.37499999999999994</v>
       </c>
-      <c r="O108" s="24">
+      <c r="O108" s="23">
         <v>0.18749999999999997</v>
       </c>
-      <c r="P108" s="24"/>
-      <c r="Q108" s="24"/>
+      <c r="P108" s="23"/>
+      <c r="Q108" s="23"/>
     </row>
     <row r="109" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L109" s="25" t="s">
+      <c r="L109" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="M109" s="25">
+      <c r="M109" s="24">
         <v>4</v>
       </c>
-      <c r="N109" s="25">
+      <c r="N109" s="24">
         <v>1.5</v>
       </c>
-      <c r="O109" s="25"/>
-      <c r="P109" s="25"/>
-      <c r="Q109" s="25"/>
+      <c r="O109" s="24"/>
+      <c r="P109" s="24"/>
+      <c r="Q109" s="24"/>
     </row>
     <row r="110" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L111" s="26"/>
-      <c r="M111" s="26" t="s">
+      <c r="L111" s="25"/>
+      <c r="M111" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="N111" s="26" t="s">
+      <c r="N111" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="O111" s="26" t="s">
+      <c r="O111" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="P111" s="26" t="s">
+      <c r="P111" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Q111" s="26" t="s">
+      <c r="Q111" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="R111" s="26" t="s">
+      <c r="R111" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="S111" s="26" t="s">
+      <c r="S111" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="T111" s="26" t="s">
+      <c r="T111" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="112" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L112" s="24" t="s">
+      <c r="L112" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="M112" s="24">
+      <c r="M112" s="23">
         <v>2.75</v>
       </c>
-      <c r="N112" s="24">
+      <c r="N112" s="23">
         <v>0.4330127018922193</v>
       </c>
-      <c r="O112" s="24">
+      <c r="O112" s="23">
         <v>6.3508529610858835</v>
       </c>
-      <c r="P112" s="24">
+      <c r="P112" s="23">
         <v>2.3907839642274852E-2</v>
       </c>
-      <c r="Q112" s="24">
+      <c r="Q112" s="23">
         <v>0.88689671618725185</v>
       </c>
-      <c r="R112" s="24">
+      <c r="R112" s="23">
         <v>4.6131032838127481</v>
       </c>
-      <c r="S112" s="24">
+      <c r="S112" s="23">
         <v>0.88689671618725185</v>
       </c>
-      <c r="T112" s="24">
+      <c r="T112" s="23">
         <v>4.6131032838127481</v>
       </c>
     </row>
     <row r="113" spans="12:20" x14ac:dyDescent="0.25">
-      <c r="L113" s="24" t="s">
+      <c r="L113" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="M113" s="24">
+      <c r="M113" s="23">
         <v>-0.75</v>
       </c>
-      <c r="N113" s="24">
+      <c r="N113" s="23">
         <v>0.30618621784789724</v>
       </c>
-      <c r="O113" s="24">
+      <c r="O113" s="23">
         <v>-2.4494897427831783</v>
       </c>
-      <c r="P113" s="24">
+      <c r="P113" s="23">
         <v>0.13397459621556129</v>
       </c>
-      <c r="Q113" s="24">
+      <c r="Q113" s="23">
         <v>-2.0674129660349188</v>
       </c>
-      <c r="R113" s="24">
+      <c r="R113" s="23">
         <v>0.56741296603491898</v>
       </c>
-      <c r="S113" s="24">
+      <c r="S113" s="23">
         <v>-2.0674129660349188</v>
       </c>
-      <c r="T113" s="24">
+      <c r="T113" s="23">
         <v>0.56741296603491898</v>
       </c>
     </row>
     <row r="114" spans="12:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L114" s="25" t="s">
+      <c r="L114" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M114" s="25">
+      <c r="M114" s="24">
         <v>2.5337258102033824E-17</v>
       </c>
-      <c r="N114" s="25">
+      <c r="N114" s="24">
         <v>0.39528470752104738</v>
       </c>
-      <c r="O114" s="25">
+      <c r="O114" s="24">
         <v>6.4098756212785473E-17</v>
       </c>
-      <c r="P114" s="25">
+      <c r="P114" s="24">
         <v>1</v>
       </c>
-      <c r="Q114" s="25">
+      <c r="Q114" s="24">
         <v>-1.700772825843653</v>
       </c>
-      <c r="R114" s="25">
+      <c r="R114" s="24">
         <v>1.700772825843653</v>
       </c>
-      <c r="S114" s="25">
+      <c r="S114" s="24">
         <v>-1.700772825843653</v>
       </c>
-      <c r="T114" s="25">
+      <c r="T114" s="24">
         <v>1.700772825843653</v>
       </c>
     </row>
@@ -23701,7 +22931,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="U5" s="68" t="s">
+      <c r="U5" s="60" t="s">
         <v>69</v>
       </c>
     </row>
@@ -23724,10 +22954,10 @@
       <c r="F8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="U8" s="27" t="s">
+      <c r="U8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="V8" s="27"/>
+      <c r="V8" s="26"/>
     </row>
     <row r="9" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
@@ -23742,10 +22972,10 @@
       <c r="F9" s="1">
         <v>5</v>
       </c>
-      <c r="U9" s="24" t="s">
+      <c r="U9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="24">
+      <c r="V9" s="23">
         <v>0.88232056157868388</v>
       </c>
     </row>
@@ -23762,10 +22992,10 @@
       <c r="F10" s="1">
         <v>6</v>
       </c>
-      <c r="U10" s="24" t="s">
+      <c r="U10" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="V10" s="24">
+      <c r="V10" s="23">
         <v>0.77848957338452418</v>
       </c>
     </row>
@@ -23782,10 +23012,10 @@
       <c r="F11" s="1">
         <v>6</v>
       </c>
-      <c r="U11" s="24" t="s">
+      <c r="U11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="V11" s="24">
+      <c r="V11" s="23">
         <v>0.70465276451269887</v>
       </c>
     </row>
@@ -23802,10 +23032,10 @@
       <c r="F12" s="1">
         <v>7</v>
       </c>
-      <c r="U12" s="24" t="s">
+      <c r="U12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="V12" s="24">
+      <c r="V12" s="23">
         <v>4.8312147223417261</v>
       </c>
     </row>
@@ -23822,10 +23052,10 @@
       <c r="F13" s="1">
         <v>7</v>
       </c>
-      <c r="U13" s="25" t="s">
+      <c r="U13" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="V13" s="25">
+      <c r="V13" s="24">
         <v>9</v>
       </c>
     </row>
@@ -23873,20 +23103,20 @@
       <c r="F16" s="1">
         <v>8</v>
       </c>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26" t="s">
+      <c r="U16" s="25"/>
+      <c r="V16" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="W16" s="26" t="s">
+      <c r="W16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="X16" s="26" t="s">
+      <c r="X16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Y16" s="26" t="s">
+      <c r="Y16" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Z16" s="26" t="s">
+      <c r="Z16" s="25" t="s">
         <v>34</v>
       </c>
     </row>
@@ -23903,109 +23133,109 @@
       <c r="F17" s="1">
         <v>12</v>
       </c>
-      <c r="U17" s="24" t="s">
+      <c r="U17" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="V17" s="24">
+      <c r="V17" s="23">
         <v>2</v>
       </c>
-      <c r="W17" s="24">
+      <c r="W17" s="23">
         <v>492.17840806199365</v>
       </c>
-      <c r="X17" s="24">
+      <c r="X17" s="23">
         <v>246.08920403099683</v>
       </c>
-      <c r="Y17" s="24">
+      <c r="Y17" s="23">
         <v>10.543380534442095</v>
       </c>
-      <c r="Z17" s="24">
+      <c r="Z17" s="23">
         <v>1.086882310688719E-2</v>
       </c>
     </row>
     <row r="18" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="U18" s="24" t="s">
+      <c r="U18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="V18" s="24">
+      <c r="V18" s="23">
         <v>6</v>
       </c>
-      <c r="W18" s="24">
+      <c r="W18" s="23">
         <v>140.04381416022866</v>
       </c>
-      <c r="X18" s="24">
+      <c r="X18" s="23">
         <v>23.340635693371443</v>
       </c>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
     </row>
     <row r="19" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U19" s="25" t="s">
+      <c r="U19" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="V19" s="25">
+      <c r="V19" s="24">
         <v>8</v>
       </c>
-      <c r="W19" s="25">
+      <c r="W19" s="24">
         <v>632.22222222222229</v>
       </c>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
     </row>
     <row r="20" spans="3:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="U21" s="26"/>
-      <c r="V21" s="26" t="s">
+      <c r="U21" s="25"/>
+      <c r="V21" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="W21" s="26" t="s">
+      <c r="W21" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="X21" s="26" t="s">
+      <c r="X21" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Y21" s="26" t="s">
+      <c r="Y21" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Z21" s="26" t="s">
+      <c r="Z21" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AA21" s="26" t="s">
+      <c r="AA21" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AB21" s="26" t="s">
+      <c r="AB21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AC21" s="26" t="s">
+      <c r="AC21" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="U22" s="24" t="s">
+      <c r="U22" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="V22" s="24">
+      <c r="V22" s="23">
         <v>6.0216954175044961</v>
       </c>
-      <c r="W22" s="24">
+      <c r="W22" s="23">
         <v>7.0897286883219373</v>
       </c>
-      <c r="X22" s="24">
+      <c r="X22" s="23">
         <v>0.84935484589464127</v>
       </c>
-      <c r="Y22" s="24">
+      <c r="Y22" s="23">
         <v>0.4282660496687371</v>
       </c>
-      <c r="Z22" s="24">
+      <c r="Z22" s="23">
         <v>-11.326245731352934</v>
       </c>
-      <c r="AA22" s="24">
+      <c r="AA22" s="23">
         <v>23.369636566361926</v>
       </c>
-      <c r="AB22" s="24">
+      <c r="AB22" s="23">
         <v>-11.326245731352934</v>
       </c>
-      <c r="AC22" s="24">
+      <c r="AC22" s="23">
         <v>23.369636566361926</v>
       </c>
     </row>
@@ -24019,31 +23249,31 @@
       <c r="E23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="U23" s="24" t="s">
+      <c r="U23" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="V23" s="24">
+      <c r="V23" s="23">
         <v>0.2337813525240767</v>
       </c>
-      <c r="W23" s="24">
+      <c r="W23" s="23">
         <v>0.21592697255853077</v>
       </c>
-      <c r="X23" s="24">
+      <c r="X23" s="23">
         <v>1.082687122196863</v>
       </c>
-      <c r="Y23" s="24">
+      <c r="Y23" s="23">
         <v>0.32052780941482745</v>
       </c>
-      <c r="Z23" s="24">
+      <c r="Z23" s="23">
         <v>-0.29457291561124688</v>
       </c>
-      <c r="AA23" s="24">
+      <c r="AA23" s="23">
         <v>0.76213562065940033</v>
       </c>
-      <c r="AB23" s="24">
+      <c r="AB23" s="23">
         <v>-0.29457291561124688</v>
       </c>
-      <c r="AC23" s="24">
+      <c r="AC23" s="23">
         <v>0.76213562065940033</v>
       </c>
     </row>
@@ -24059,31 +23289,31 @@
       <c r="E24" s="1">
         <v>34</v>
       </c>
-      <c r="U24" s="25" t="s">
+      <c r="U24" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="V24" s="25">
+      <c r="V24" s="24">
         <v>2.3934807916181606</v>
       </c>
-      <c r="W24" s="25">
+      <c r="W24" s="24">
         <v>1.4835502721406741</v>
       </c>
-      <c r="X24" s="25">
+      <c r="X24" s="24">
         <v>1.6133466027844889</v>
       </c>
-      <c r="Y24" s="25">
+      <c r="Y24" s="24">
         <v>0.15779605886716247</v>
       </c>
-      <c r="Z24" s="25">
+      <c r="Z24" s="24">
         <v>-1.2366359510521998</v>
       </c>
-      <c r="AA24" s="25">
+      <c r="AA24" s="24">
         <v>6.0235975342885215</v>
       </c>
-      <c r="AB24" s="25">
+      <c r="AB24" s="24">
         <v>-1.2366359510521998</v>
       </c>
-      <c r="AC24" s="25">
+      <c r="AC24" s="24">
         <v>6.0235975342885215</v>
       </c>
     </row>
@@ -24125,7 +23355,7 @@
       <c r="E27" s="1">
         <v>49</v>
       </c>
-      <c r="U27" s="68" t="s">
+      <c r="U27" s="60" t="s">
         <v>70</v>
       </c>
     </row>
@@ -24170,10 +23400,10 @@
       <c r="E30" s="1">
         <v>70</v>
       </c>
-      <c r="U30" s="27" t="s">
+      <c r="U30" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="V30" s="27"/>
+      <c r="V30" s="26"/>
     </row>
     <row r="31" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C31">
@@ -24187,10 +23417,10 @@
       <c r="E31" s="1">
         <v>68</v>
       </c>
-      <c r="U31" s="24" t="s">
+      <c r="U31" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="V31" s="24">
+      <c r="V31" s="23">
         <v>0.96053035464182102</v>
       </c>
     </row>
@@ -24206,26 +23436,26 @@
       <c r="E32" s="1">
         <v>78</v>
       </c>
-      <c r="U32" s="24" t="s">
+      <c r="U32" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="V32" s="24">
+      <c r="V32" s="23">
         <v>0.92261856218834248</v>
       </c>
     </row>
     <row r="33" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="U33" s="24" t="s">
+      <c r="U33" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="V33" s="24">
+      <c r="V33" s="23">
         <v>0.89682474958445668</v>
       </c>
     </row>
     <row r="34" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="U34" s="24" t="s">
+      <c r="U34" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="V34" s="24">
+      <c r="V34" s="23">
         <v>0.49356684466018463</v>
       </c>
     </row>
@@ -24233,147 +23463,147 @@
       <c r="H35" t="s">
         <v>18</v>
       </c>
-      <c r="U35" s="25" t="s">
+      <c r="U35" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="V35" s="25">
+      <c r="V35" s="24">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H37" s="27" t="s">
+      <c r="H37" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I37" s="27"/>
+      <c r="I37" s="26"/>
       <c r="U37" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="38" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="23">
         <v>1</v>
       </c>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26" t="s">
+      <c r="U38" s="25"/>
+      <c r="V38" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="W38" s="26" t="s">
+      <c r="W38" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="X38" s="26" t="s">
+      <c r="X38" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="Y38" s="26" t="s">
+      <c r="Y38" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Z38" s="26" t="s">
+      <c r="Z38" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="39" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="23">
         <v>1</v>
       </c>
-      <c r="U39" s="24" t="s">
+      <c r="U39" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="V39" s="24">
+      <c r="V39" s="23">
         <v>2</v>
       </c>
-      <c r="W39" s="24">
+      <c r="W39" s="23">
         <v>17.427239508002021</v>
       </c>
-      <c r="X39" s="24">
+      <c r="X39" s="23">
         <v>8.7136197540010105</v>
       </c>
-      <c r="Y39" s="24">
+      <c r="Y39" s="23">
         <v>35.768987561356056</v>
       </c>
-      <c r="Z39" s="24">
+      <c r="Z39" s="23">
         <v>4.6335129915293439E-4</v>
       </c>
     </row>
     <row r="40" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H40" s="24" t="s">
+      <c r="H40" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="23">
         <v>1</v>
       </c>
-      <c r="U40" s="24" t="s">
+      <c r="U40" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="V40" s="24">
+      <c r="V40" s="23">
         <v>6</v>
       </c>
-      <c r="W40" s="24">
+      <c r="W40" s="23">
         <v>1.4616493808868651</v>
       </c>
-      <c r="X40" s="24">
+      <c r="X40" s="23">
         <v>0.24360823014781086</v>
       </c>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
     </row>
     <row r="41" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H41" s="24" t="s">
+      <c r="H41" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="23">
         <v>1.0640610731216223E-14</v>
       </c>
-      <c r="U41" s="25" t="s">
+      <c r="U41" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="V41" s="25">
+      <c r="V41" s="24">
         <v>8</v>
       </c>
-      <c r="W41" s="25">
+      <c r="W41" s="24">
         <v>18.888888888888886</v>
       </c>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="25"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="24"/>
     </row>
     <row r="42" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I42" s="25">
+      <c r="I42" s="24">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="U43" s="26"/>
-      <c r="V43" s="26" t="s">
+      <c r="U43" s="25"/>
+      <c r="V43" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="W43" s="26" t="s">
+      <c r="W43" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="X43" s="26" t="s">
+      <c r="X43" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Y43" s="26" t="s">
+      <c r="Y43" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Z43" s="26" t="s">
+      <c r="Z43" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AA43" s="26" t="s">
+      <c r="AA43" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AB43" s="26" t="s">
+      <c r="AB43" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AC43" s="26" t="s">
+      <c r="AC43" s="25" t="s">
         <v>41</v>
       </c>
     </row>
@@ -24381,268 +23611,268 @@
       <c r="H44" t="s">
         <v>25</v>
       </c>
-      <c r="U44" s="24" t="s">
+      <c r="U44" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="V44" s="24">
+      <c r="V44" s="23">
         <v>-0.69203090274103229</v>
       </c>
-      <c r="W44" s="24">
+      <c r="W44" s="23">
         <v>0.72430128224475487</v>
       </c>
-      <c r="X44" s="24">
+      <c r="X44" s="23">
         <v>-0.95544619304868517</v>
       </c>
-      <c r="Y44" s="24">
+      <c r="Y44" s="23">
         <v>0.37624604960661406</v>
       </c>
-      <c r="Z44" s="24">
+      <c r="Z44" s="23">
         <v>-2.4643322940652208</v>
       </c>
-      <c r="AA44" s="24">
+      <c r="AA44" s="23">
         <v>1.080270488583156</v>
       </c>
-      <c r="AB44" s="24">
+      <c r="AB44" s="23">
         <v>-2.4643322940652208</v>
       </c>
-      <c r="AC44" s="24">
+      <c r="AC44" s="23">
         <v>1.080270488583156</v>
       </c>
     </row>
     <row r="45" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H45" s="26"/>
-      <c r="I45" s="26" t="s">
+      <c r="H45" s="25"/>
+      <c r="I45" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J45" s="26" t="s">
+      <c r="J45" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="K45" s="26" t="s">
+      <c r="K45" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="L45" s="26" t="s">
+      <c r="L45" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="M45" s="26" t="s">
+      <c r="M45" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="U45" s="24" t="s">
+      <c r="U45" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="V45" s="24">
+      <c r="V45" s="23">
         <v>0.12648163826859987</v>
       </c>
-      <c r="W45" s="24">
+      <c r="W45" s="23">
         <v>2.2059544161821668E-2</v>
       </c>
-      <c r="X45" s="24">
+      <c r="X45" s="23">
         <v>5.7336469575604809</v>
       </c>
-      <c r="Y45" s="24">
+      <c r="Y45" s="23">
         <v>1.2223579618357682E-3</v>
       </c>
-      <c r="Z45" s="24">
+      <c r="Z45" s="23">
         <v>7.2503878228182606E-2</v>
       </c>
-      <c r="AA45" s="24">
+      <c r="AA45" s="23">
         <v>0.18045939830901714</v>
       </c>
-      <c r="AB45" s="24">
+      <c r="AB45" s="23">
         <v>7.2503878228182606E-2</v>
       </c>
-      <c r="AC45" s="24">
+      <c r="AC45" s="23">
         <v>0.18045939830901714</v>
       </c>
     </row>
     <row r="46" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H46" s="24" t="s">
+      <c r="H46" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="24">
+      <c r="I46" s="23">
         <v>2</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J46" s="23">
         <v>492.17787727151011</v>
       </c>
-      <c r="K46" s="24">
+      <c r="K46" s="23">
         <v>246.08893863575506</v>
       </c>
-      <c r="L46" s="24">
+      <c r="L46" s="23">
         <v>2.1734966847252541E+30</v>
       </c>
-      <c r="M46" s="24">
+      <c r="M46" s="23">
         <v>2.6295826032770515E-90</v>
       </c>
-      <c r="U46" s="25" t="s">
+      <c r="U46" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="V46" s="25">
+      <c r="V46" s="24">
         <v>-0.18888242142025613</v>
       </c>
-      <c r="W46" s="25">
+      <c r="W46" s="24">
         <v>0.15156255078646408</v>
       </c>
-      <c r="X46" s="25">
+      <c r="X46" s="24">
         <v>-1.2462341154865615</v>
       </c>
-      <c r="Y46" s="25">
+      <c r="Y46" s="24">
         <v>0.2591288950756781</v>
       </c>
-      <c r="Z46" s="25">
+      <c r="Z46" s="24">
         <v>-0.55974262312941647</v>
       </c>
-      <c r="AA46" s="25">
+      <c r="AA46" s="24">
         <v>0.18197778028890416</v>
       </c>
-      <c r="AB46" s="25">
+      <c r="AB46" s="24">
         <v>-0.55974262312941647</v>
       </c>
-      <c r="AC46" s="25">
+      <c r="AC46" s="24">
         <v>0.18197778028890416</v>
       </c>
     </row>
     <row r="47" spans="8:29" x14ac:dyDescent="0.25">
-      <c r="H47" s="24" t="s">
+      <c r="H47" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I47" s="24">
+      <c r="I47" s="23">
         <v>6</v>
       </c>
-      <c r="J47" s="24">
+      <c r="J47" s="23">
         <v>6.7933558039964297E-28</v>
       </c>
-      <c r="K47" s="24">
+      <c r="K47" s="23">
         <v>1.1322259673327384E-28</v>
       </c>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
     </row>
     <row r="48" spans="8:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H48" s="25" t="s">
+      <c r="H48" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I48" s="25">
+      <c r="I48" s="24">
         <v>8</v>
       </c>
-      <c r="J48" s="25">
+      <c r="J48" s="24">
         <v>492.17787727151011</v>
       </c>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
     </row>
     <row r="49" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="H50" s="26"/>
-      <c r="I50" s="26" t="s">
+      <c r="H50" s="25"/>
+      <c r="I50" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J50" s="26" t="s">
+      <c r="J50" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="K50" s="26" t="s">
+      <c r="K50" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L50" s="26" t="s">
+      <c r="L50" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M50" s="26" t="s">
+      <c r="M50" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N50" s="26" t="s">
+      <c r="N50" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="O50" s="26" t="s">
+      <c r="O50" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="P50" s="26" t="s">
+      <c r="P50" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="H51" s="24" t="s">
+      <c r="H51" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I51" s="24">
+      <c r="I51" s="23">
         <v>-2.7476858578462497</v>
       </c>
-      <c r="J51" s="24">
+      <c r="J51" s="23">
         <v>2.0458117480599165E-14</v>
       </c>
-      <c r="K51" s="24">
+      <c r="K51" s="23">
         <v>-134307854104950.48</v>
       </c>
-      <c r="L51" s="24">
+      <c r="L51" s="23">
         <v>1.1499933032911124E-83</v>
       </c>
-      <c r="M51" s="24">
+      <c r="M51" s="23">
         <v>-2.7476858578462999</v>
       </c>
-      <c r="N51" s="24">
+      <c r="N51" s="23">
         <v>-2.7476858578461996</v>
       </c>
-      <c r="O51" s="24">
+      <c r="O51" s="23">
         <v>-2.7476858578462999</v>
       </c>
-      <c r="P51" s="24">
+      <c r="P51" s="23">
         <v>-2.7476858578461996</v>
       </c>
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="H52" s="24" t="s">
+      <c r="H52" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I52" s="23">
         <v>-12.671966327827166</v>
       </c>
-      <c r="J52" s="24">
+      <c r="J52" s="23">
         <v>1.7299219491117131E-14</v>
       </c>
-      <c r="K52" s="24">
+      <c r="K52" s="23">
         <v>-732516651073998.75</v>
       </c>
-      <c r="L52" s="24">
+      <c r="L52" s="23">
         <v>4.3691682139627682E-88</v>
       </c>
-      <c r="M52" s="24">
+      <c r="M52" s="23">
         <v>-12.671966327827208</v>
       </c>
-      <c r="N52" s="24">
+      <c r="N52" s="23">
         <v>-12.671966327827123</v>
       </c>
-      <c r="O52" s="24">
+      <c r="O52" s="23">
         <v>-12.671966327827208</v>
       </c>
-      <c r="P52" s="24">
+      <c r="P52" s="23">
         <v>-12.671966327827123</v>
       </c>
     </row>
     <row r="53" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H53" s="25" t="s">
+      <c r="H53" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="I53" s="25">
+      <c r="I53" s="24">
         <v>1.8365566450762363</v>
       </c>
-      <c r="J53" s="25">
+      <c r="J53" s="24">
         <v>1.8145367751610896E-15</v>
       </c>
-      <c r="K53" s="25">
+      <c r="K53" s="24">
         <v>1012135256896731.5</v>
       </c>
-      <c r="L53" s="25">
+      <c r="L53" s="24">
         <v>6.2787393188208319E-89</v>
       </c>
-      <c r="M53" s="25">
+      <c r="M53" s="24">
         <v>1.8365566450762318</v>
       </c>
-      <c r="N53" s="25">
+      <c r="N53" s="24">
         <v>1.8365566450762407</v>
       </c>
-      <c r="O53" s="25">
+      <c r="O53" s="24">
         <v>1.8365566450762318</v>
       </c>
-      <c r="P53" s="25">
+      <c r="P53" s="24">
         <v>1.8365566450762407</v>
       </c>
     </row>
@@ -24685,10 +23915,10 @@
       <c r="E60" s="1">
         <v>6</v>
       </c>
-      <c r="H60" s="27" t="s">
+      <c r="H60" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I60" s="27"/>
+      <c r="I60" s="26"/>
     </row>
     <row r="61" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C61">
@@ -24702,10 +23932,10 @@
       <c r="E61" s="1">
         <v>6</v>
       </c>
-      <c r="H61" s="24" t="s">
+      <c r="H61" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I61" s="23">
         <v>1</v>
       </c>
     </row>
@@ -24721,10 +23951,10 @@
       <c r="E62" s="1">
         <v>7</v>
       </c>
-      <c r="H62" s="24" t="s">
+      <c r="H62" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I62" s="24">
+      <c r="I62" s="23">
         <v>1</v>
       </c>
     </row>
@@ -24740,10 +23970,10 @@
       <c r="E63" s="1">
         <v>7</v>
       </c>
-      <c r="H63" s="24" t="s">
+      <c r="H63" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I63" s="24">
+      <c r="I63" s="23">
         <v>1</v>
       </c>
     </row>
@@ -24759,10 +23989,10 @@
       <c r="E64" s="1">
         <v>6</v>
       </c>
-      <c r="H64" s="24" t="s">
+      <c r="H64" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I64" s="24">
+      <c r="I64" s="23">
         <v>3.0198780559258415E-15</v>
       </c>
     </row>
@@ -24778,10 +24008,10 @@
       <c r="E65" s="1">
         <v>8</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="I65" s="25">
+      <c r="I65" s="24">
         <v>9</v>
       </c>
     </row>
@@ -24815,185 +24045,185 @@
       </c>
     </row>
     <row r="68" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="H68" s="26"/>
-      <c r="I68" s="26" t="s">
+      <c r="H68" s="25"/>
+      <c r="I68" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J68" s="26" t="s">
+      <c r="J68" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="K68" s="26" t="s">
+      <c r="K68" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="L68" s="26" t="s">
+      <c r="L68" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="M68" s="26" t="s">
+      <c r="M68" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="69" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="H69" s="24" t="s">
+      <c r="H69" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="I69" s="24">
+      <c r="I69" s="23">
         <v>2</v>
       </c>
-      <c r="J69" s="24">
+      <c r="J69" s="23">
         <v>492.17787727151011</v>
       </c>
-      <c r="K69" s="24">
+      <c r="K69" s="23">
         <v>246.08893863575506</v>
       </c>
-      <c r="L69" s="24">
+      <c r="L69" s="23">
         <v>2.6984431977500442E+31</v>
       </c>
-      <c r="M69" s="24">
+      <c r="M69" s="23">
         <v>1.3741176638631145E-93</v>
       </c>
     </row>
     <row r="70" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="H70" s="24" t="s">
+      <c r="H70" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I70" s="24">
+      <c r="I70" s="23">
         <v>6</v>
       </c>
-      <c r="J70" s="24">
+      <c r="J70" s="23">
         <v>5.4717980835974635E-29</v>
       </c>
-      <c r="K70" s="24">
+      <c r="K70" s="23">
         <v>9.1196634726624392E-30</v>
       </c>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
     </row>
     <row r="71" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H71" s="25" t="s">
+      <c r="H71" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I71" s="25">
+      <c r="I71" s="24">
         <v>8</v>
       </c>
-      <c r="J71" s="25">
+      <c r="J71" s="24">
         <v>492.17787727151011</v>
       </c>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
     </row>
     <row r="72" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="H73" s="26"/>
-      <c r="I73" s="26" t="s">
+      <c r="H73" s="25"/>
+      <c r="I73" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J73" s="26" t="s">
+      <c r="J73" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="K73" s="26" t="s">
+      <c r="K73" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L73" s="26" t="s">
+      <c r="L73" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M73" s="26" t="s">
+      <c r="M73" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N73" s="26" t="s">
+      <c r="N73" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="O73" s="26" t="s">
+      <c r="O73" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="P73" s="26" t="s">
+      <c r="P73" s="25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="74" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="H74" s="24" t="s">
+      <c r="H74" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I74" s="24">
+      <c r="I74" s="23">
         <v>7.3007976820417007</v>
       </c>
-      <c r="J74" s="24">
+      <c r="J74" s="23">
         <v>4.1314671769782775E-15</v>
       </c>
-      <c r="K74" s="24">
+      <c r="K74" s="23">
         <v>1767119855804215</v>
       </c>
-      <c r="L74" s="24">
+      <c r="L74" s="23">
         <v>2.2167041397248842E-90</v>
       </c>
-      <c r="M74" s="24">
+      <c r="M74" s="23">
         <v>7.3007976820416909</v>
       </c>
-      <c r="N74" s="24">
+      <c r="N74" s="23">
         <v>7.3007976820417104</v>
       </c>
-      <c r="O74" s="24">
+      <c r="O74" s="23">
         <v>7.3007976820416909</v>
       </c>
-      <c r="P74" s="24">
+      <c r="P74" s="23">
         <v>7.3007976820417104</v>
       </c>
     </row>
     <row r="75" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="H75" s="24" t="s">
+      <c r="H75" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I75" s="24">
+      <c r="I75" s="23">
         <v>1.8483341503138808</v>
       </c>
-      <c r="J75" s="24">
+      <c r="J75" s="23">
         <v>1.0671150320278151E-15</v>
       </c>
-      <c r="K75" s="24">
+      <c r="K75" s="23">
         <v>1732085196852238.5</v>
       </c>
-      <c r="L75" s="24">
+      <c r="L75" s="23">
         <v>2.499702200764675E-90</v>
       </c>
-      <c r="M75" s="24">
+      <c r="M75" s="23">
         <v>1.8483341503138782</v>
       </c>
-      <c r="N75" s="24">
+      <c r="N75" s="23">
         <v>1.8483341503138835</v>
       </c>
-      <c r="O75" s="24">
+      <c r="O75" s="23">
         <v>1.8483341503138782</v>
       </c>
-      <c r="P75" s="24">
+      <c r="P75" s="23">
         <v>1.8483341503138835</v>
       </c>
     </row>
     <row r="76" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H76" s="25" t="s">
+      <c r="H76" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I76" s="25">
+      <c r="I76" s="24">
         <v>2.7425943543112852</v>
       </c>
-      <c r="J76" s="25">
+      <c r="J76" s="24">
         <v>7.6903459152757339E-16</v>
       </c>
-      <c r="K76" s="25">
+      <c r="K76" s="24">
         <v>3566282173164054</v>
       </c>
-      <c r="L76" s="25">
+      <c r="L76" s="24">
         <v>3.28102513076837E-92</v>
       </c>
-      <c r="M76" s="25">
+      <c r="M76" s="24">
         <v>2.7425943543112834</v>
       </c>
-      <c r="N76" s="25">
+      <c r="N76" s="24">
         <v>2.742594354311287</v>
       </c>
-      <c r="O76" s="25">
+      <c r="O76" s="24">
         <v>2.7425943543112834</v>
       </c>
-      <c r="P76" s="25">
+      <c r="P76" s="24">
         <v>2.742594354311287</v>
       </c>
     </row>
@@ -25007,7 +24237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B69556-1F8B-44D0-B769-6E112D9E2521}">
   <dimension ref="C7:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
